--- a/project/yilaitong/报价.xlsx
+++ b/project/yilaitong/报价.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
   <si>
     <t>苹果型号</t>
   </si>
@@ -1018,51 +1018,21 @@
     <t>小米净化器--小米空气净化器2--白</t>
   </si>
   <si>
-    <t>小米智能音响--小爱音响</t>
-  </si>
-  <si>
     <t>小米净化器--米家空气净化器Pro--白</t>
   </si>
   <si>
-    <t>小米智能音响--小爱mini</t>
-  </si>
-  <si>
     <t>红米 系列--红米note5--6GB+64GB魔力蓝</t>
   </si>
   <si>
     <t>红米 系列--红米S2--4+64G铂银灰</t>
   </si>
   <si>
-    <t>小米扫地机--小米智能扫地机器人</t>
-  </si>
-  <si>
-    <t>小米扫地机--小米石头扫地机器人</t>
-  </si>
-  <si>
     <t>红米 系列--红米5A--香槟金32G</t>
   </si>
   <si>
     <t>红米 系列--红米5A-- 铂银灰32G</t>
   </si>
   <si>
-    <t>小米平衡车--九号平衡车</t>
-  </si>
-  <si>
-    <t>小米笔记本--15.6寸 5999款游戏本</t>
-  </si>
-  <si>
-    <t>小米笔记本--15.6寸 6999款游戏本</t>
-  </si>
-  <si>
-    <t>小米笔记本--15.6寸 7999款游戏本</t>
-  </si>
-  <si>
-    <t>小米笔记本--15.6寸 8999款游戏本</t>
-  </si>
-  <si>
-    <t>小米 电源--10000mAh</t>
-  </si>
-  <si>
     <t>小米笔记本--12.5寸 3599款--4+128G金</t>
   </si>
   <si>
@@ -1085,18 +1055,6 @@
   </si>
   <si>
     <t>小米笔记本--15.6寸 6999款--16+256G灰</t>
-  </si>
-  <si>
-    <t>小米 电源--5000mAh</t>
-  </si>
-  <si>
-    <t>小米平衡车--九号平衡车Plus</t>
-  </si>
-  <si>
-    <t>小米净化器--小米空气净化器2S</t>
-  </si>
-  <si>
-    <t>小米净水器--小米净水器（厨下式）</t>
   </si>
   <si>
     <t>红米 系列--红米6 pro--3+32G流沙金</t>
@@ -4511,7 +4469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5352,10 +5310,10 @@
         <v>332</v>
       </c>
       <c r="B76" t="n">
-        <v>385</v>
+        <v>1120</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>285</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5363,10 +5321,10 @@
         <v>333</v>
       </c>
       <c r="B77" t="n">
-        <v>1120</v>
+        <v>1470</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>1020</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5374,10 +5332,10 @@
         <v>334</v>
       </c>
       <c r="B78" t="n">
-        <v>260</v>
+        <v>1062</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>160</v>
+        <v>962.5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5385,10 +5343,10 @@
         <v>335</v>
       </c>
       <c r="B79" t="n">
-        <v>1470</v>
+        <v>719</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1370</v>
+        <v>619.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5396,10 +5354,10 @@
         <v>336</v>
       </c>
       <c r="B80" t="n">
-        <v>1062</v>
+        <v>712</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>962.5</v>
+        <v>612</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5407,10 +5365,10 @@
         <v>337</v>
       </c>
       <c r="B81" t="n">
-        <v>1540</v>
+        <v>3370</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1440</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5418,10 +5376,10 @@
         <v>338</v>
       </c>
       <c r="B82" t="n">
-        <v>2400</v>
+        <v>4450</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>2250</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5429,10 +5387,10 @@
         <v>339</v>
       </c>
       <c r="B83" t="n">
-        <v>719</v>
+        <v>4670</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>619.5</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5440,10 +5398,10 @@
         <v>340</v>
       </c>
       <c r="B84" t="n">
-        <v>712</v>
+        <v>4850</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>612</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5451,10 +5409,10 @@
         <v>341</v>
       </c>
       <c r="B85" t="n">
-        <v>1960</v>
+        <v>5450</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>1860</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5462,10 +5420,10 @@
         <v>342</v>
       </c>
       <c r="B86" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>5350</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5473,10 +5431,10 @@
         <v>343</v>
       </c>
       <c r="B87" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>6100</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5484,10 +5442,10 @@
         <v>344</v>
       </c>
       <c r="B88" t="n">
-        <v>7050</v>
+        <v>6500</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>6900</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5495,10 +5453,10 @@
         <v>345</v>
       </c>
       <c r="B89" t="n">
-        <v>7850</v>
+        <v>1027</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>7700</v>
+        <v>927.5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5506,384 +5464,384 @@
         <v>346</v>
       </c>
       <c r="B90" t="n">
-        <v>170</v>
+        <v>2640</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>70</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>347</v>
+        <v>150</v>
       </c>
       <c r="B91" t="n">
-        <v>3370</v>
+        <v>812</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>3220</v>
+        <v>712</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="B92" t="n">
-        <v>4450</v>
+        <v>832</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>4300</v>
+        <v>732</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="B93" t="n">
-        <v>4670</v>
+        <v>923</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>4520</v>
+        <v>823</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>350</v>
+        <v>131</v>
       </c>
       <c r="B94" t="n">
-        <v>4850</v>
+        <v>928</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>4700</v>
+        <v>828</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="B95" t="n">
-        <v>5450</v>
+        <v>5435</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>352</v>
+        <v>43</v>
       </c>
       <c r="B96" t="n">
-        <v>5000</v>
+        <v>5435</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>4850</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="B97" t="n">
-        <v>5750</v>
+        <v>900</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>5600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>354</v>
+        <v>137</v>
       </c>
       <c r="B98" t="n">
-        <v>6500</v>
+        <v>898</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>6350</v>
+        <v>798</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>355</v>
+        <v>171</v>
       </c>
       <c r="B99" t="n">
-        <v>146</v>
+        <v>695</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>46</v>
+        <v>595</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>356</v>
+        <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>3390</v>
+        <v>947</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>3240</v>
+        <v>847</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>357</v>
+        <v>194</v>
       </c>
       <c r="B101" t="n">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>715</v>
+        <v>732</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>1720</v>
+        <v>947</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>1620</v>
+        <v>847</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>359</v>
+        <v>127</v>
       </c>
       <c r="B103" t="n">
-        <v>1027</v>
+        <v>947</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>927.5</v>
+        <v>847</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="B104" t="n">
-        <v>2640</v>
+        <v>608</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>2490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="B105" t="n">
-        <v>812</v>
+        <v>601</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>712</v>
+        <v>501</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="B106" t="n">
-        <v>832</v>
+        <v>1145</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>732</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="B107" t="n">
-        <v>923</v>
+        <v>830</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>823</v>
+        <v>730</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="B108" t="n">
-        <v>928</v>
+        <v>1075</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>828</v>
+        <v>975</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="B109" t="n">
-        <v>5435</v>
+        <v>1062</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>5285</v>
+        <v>962.5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="B110" t="n">
-        <v>5435</v>
+        <v>1485</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>5285</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="B111" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>800</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>351</v>
       </c>
       <c r="B112" t="n">
-        <v>898</v>
+        <v>2300</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>798</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="B113" t="n">
-        <v>695</v>
+        <v>890</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>595</v>
+        <v>790</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="B114" t="n">
-        <v>947</v>
+        <v>980</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>847</v>
+        <v>880</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>194</v>
+        <v>354</v>
       </c>
       <c r="B115" t="n">
-        <v>832</v>
+        <v>1450</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>732</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>355</v>
       </c>
       <c r="B116" t="n">
-        <v>947</v>
+        <v>900</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>847</v>
+        <v>800</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="B117" t="n">
-        <v>947</v>
+        <v>3330</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>847</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="B118" t="n">
-        <v>608</v>
+        <v>1220</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>508</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
-        <v>218</v>
+        <v>358</v>
       </c>
       <c r="B119" t="n">
-        <v>601</v>
+        <v>835</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>501</v>
+        <v>735</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>196</v>
+        <v>359</v>
       </c>
       <c r="B120" t="n">
-        <v>1145</v>
+        <v>3830</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>1045</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B121" t="n">
-        <v>830</v>
+        <v>3100</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>730</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B122" t="n">
-        <v>1075</v>
+        <v>835</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>975</v>
+        <v>735</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B123" t="n">
-        <v>1062</v>
+        <v>1075</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>962.5</v>
+        <v>975</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="B124" t="n">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>1385</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5891,10 +5849,10 @@
         <v>364</v>
       </c>
       <c r="B125" t="n">
-        <v>2300</v>
+        <v>780</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>2150</v>
+        <v>680</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5902,10 +5860,10 @@
         <v>365</v>
       </c>
       <c r="B126" t="n">
-        <v>2300</v>
+        <v>3320</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>2150</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5913,10 +5871,10 @@
         <v>366</v>
       </c>
       <c r="B127" t="n">
-        <v>890</v>
+        <v>2750</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>790</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5924,10 +5882,10 @@
         <v>367</v>
       </c>
       <c r="B128" t="n">
-        <v>980</v>
+        <v>2010</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>880</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5935,10 +5893,10 @@
         <v>368</v>
       </c>
       <c r="B129" t="n">
-        <v>1450</v>
+        <v>1030</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5946,10 +5904,10 @@
         <v>369</v>
       </c>
       <c r="B130" t="n">
-        <v>900</v>
+        <v>1025</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>800</v>
+        <v>925</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5957,10 +5915,10 @@
         <v>370</v>
       </c>
       <c r="B131" t="n">
-        <v>3330</v>
+        <v>1160</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>3180</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5968,10 +5926,10 @@
         <v>371</v>
       </c>
       <c r="B132" t="n">
-        <v>1220</v>
+        <v>1540</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>1120</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5979,10 +5937,10 @@
         <v>372</v>
       </c>
       <c r="B133" t="n">
-        <v>835</v>
+        <v>1540</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>735</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5990,10 +5948,10 @@
         <v>373</v>
       </c>
       <c r="B134" t="n">
-        <v>3830</v>
+        <v>1030</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>3680</v>
+        <v>930</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6001,10 +5959,10 @@
         <v>374</v>
       </c>
       <c r="B135" t="n">
-        <v>3100</v>
+        <v>2750</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>2950</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6012,163 +5970,9 @@
         <v>375</v>
       </c>
       <c r="B136" t="n">
-        <v>835</v>
+        <v>1400</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1075</v>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1480</v>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B139" t="n">
-        <v>780</v>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B140" t="n">
-        <v>3320</v>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B141" t="n">
-        <v>2750</v>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B142" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1030</v>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1160</v>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1540</v>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1540</v>
-      </c>
-      <c r="D147" s="2" t="n">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1030</v>
-      </c>
-      <c r="D148" s="2" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B149" t="n">
-        <v>2750</v>
-      </c>
-      <c r="D149" s="2" t="n">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D150" s="2" t="n">
         <v>1300</v>
       </c>
     </row>
@@ -6199,7 +6003,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6210,7 +6014,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B2" t="n">
         <v>1180</v>
@@ -6221,7 +6025,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B3" t="n">
         <v>1307</v>
@@ -6232,7 +6036,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B4" t="n">
         <v>1525</v>
@@ -6243,7 +6047,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B5" t="n">
         <v>1030</v>
@@ -6254,7 +6058,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B6" t="n">
         <v>1046</v>
@@ -6265,7 +6069,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B7" t="n">
         <v>710</v>
@@ -6276,7 +6080,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B8" t="n">
         <v>715</v>
@@ -6287,7 +6091,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B9" t="n">
         <v>712</v>
@@ -6298,7 +6102,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B10" t="n">
         <v>1005</v>
@@ -6309,7 +6113,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B11" t="n">
         <v>630</v>
@@ -6320,7 +6124,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B12" t="n">
         <v>640</v>
@@ -6331,7 +6135,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B13" t="n">
         <v>886</v>
@@ -6342,7 +6146,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B14" t="n">
         <v>877</v>
@@ -6353,7 +6157,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B15" t="n">
         <v>880</v>
@@ -6364,7 +6168,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B16" t="n">
         <v>882</v>
@@ -6375,7 +6179,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B17" t="n">
         <v>950</v>
@@ -6386,7 +6190,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B18" t="n">
         <v>940</v>
@@ -6397,7 +6201,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B19" t="n">
         <v>750</v>
@@ -6408,7 +6212,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B20" t="n">
         <v>1645</v>
@@ -6419,7 +6223,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B21" t="n">
         <v>1652</v>
@@ -6430,7 +6234,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B22" t="n">
         <v>1990</v>
@@ -6441,7 +6245,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B23" t="n">
         <v>2070</v>
@@ -6452,7 +6256,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B24" t="n">
         <v>1485</v>
@@ -6463,7 +6267,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B25" t="n">
         <v>1520</v>
@@ -6474,7 +6278,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B26" t="n">
         <v>881</v>
@@ -6485,7 +6289,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B27" t="n">
         <v>947</v>
@@ -6496,7 +6300,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B28" t="n">
         <v>759</v>
@@ -6507,7 +6311,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B29" t="n">
         <v>760</v>
@@ -6518,7 +6322,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B30" t="n">
         <v>881</v>
@@ -6529,7 +6333,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B31" t="n">
         <v>796</v>
@@ -6540,7 +6344,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B32" t="n">
         <v>764</v>
@@ -6551,7 +6355,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B33" t="n">
         <v>760</v>
@@ -6562,7 +6366,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B34" t="n">
         <v>1520</v>
@@ -6573,7 +6377,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B35" t="n">
         <v>1030</v>
@@ -6584,7 +6388,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B36" t="n">
         <v>960</v>
@@ -6595,7 +6399,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B37" t="n">
         <v>960</v>
@@ -6606,7 +6410,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B38" t="n">
         <v>800</v>
@@ -6617,7 +6421,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B39" t="n">
         <v>1095</v>
@@ -6674,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -6700,7 +6504,7 @@
         <v>1214</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1180</v>
@@ -6726,7 +6530,7 @@
         <v>634</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>1307</v>
@@ -6752,7 +6556,7 @@
         <v>634</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>1525</v>
@@ -6778,7 +6582,7 @@
         <v>634</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1030</v>
@@ -6804,7 +6608,7 @@
         <v>819</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1046</v>
@@ -6830,7 +6634,7 @@
         <v>879</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>710</v>
@@ -6856,7 +6660,7 @@
         <v>878</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>715</v>
@@ -6882,7 +6686,7 @@
         <v>1089</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>712</v>
@@ -6908,7 +6712,7 @@
         <v>879</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1005</v>
@@ -6934,7 +6738,7 @@
         <v>1080</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>630</v>
@@ -6960,7 +6764,7 @@
         <v>1077</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>640</v>
@@ -6986,7 +6790,7 @@
         <v>740</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>886</v>
@@ -7012,7 +6816,7 @@
         <v>1077</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>877</v>
@@ -7038,7 +6842,7 @@
         <v>1215</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>880</v>
@@ -7064,7 +6868,7 @@
         <v>1232</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>882</v>
@@ -7090,7 +6894,7 @@
         <v>1217</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>950</v>
@@ -7116,7 +6920,7 @@
         <v>1444</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>940</v>
@@ -7142,7 +6946,7 @@
         <v>1451</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>750</v>
@@ -7168,7 +6972,7 @@
         <v>1490</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>1645</v>
@@ -7194,7 +6998,7 @@
         <v>1027</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>1652</v>
@@ -7220,7 +7024,7 @@
         <v>1020</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>1990</v>
@@ -7246,7 +7050,7 @@
         <v>1022</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>2070</v>
@@ -7272,7 +7076,7 @@
         <v>1022</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>1485</v>
@@ -7298,7 +7102,7 @@
         <v>2950</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>1520</v>
@@ -7324,7 +7128,7 @@
         <v>2905</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>881</v>
@@ -7350,7 +7154,7 @@
         <v>3290</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>947</v>
@@ -7376,7 +7180,7 @@
         <v>3102</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>759</v>
@@ -7402,7 +7206,7 @@
         <v>1458</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>760</v>
@@ -7428,7 +7232,7 @@
         <v>1538</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>881</v>
@@ -7454,7 +7258,7 @@
         <v>1546</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>796</v>
@@ -7480,7 +7284,7 @@
         <v>1485</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>764</v>
@@ -7506,7 +7310,7 @@
         <v>1795</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>760</v>
@@ -7532,7 +7336,7 @@
         <v>1557</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1520</v>
@@ -7558,7 +7362,7 @@
         <v>1222</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>1030</v>
@@ -7584,7 +7388,7 @@
         <v>1787</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>960</v>
@@ -7610,7 +7414,7 @@
         <v>933</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>960</v>
@@ -7636,7 +7440,7 @@
         <v>933</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>800</v>
@@ -7662,7 +7466,7 @@
         <v>1782</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>1095</v>
@@ -8405,7 +8209,7 @@
         <v>332</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>385</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8425,7 +8229,7 @@
         <v>333</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>1120</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8445,7 +8249,7 @@
         <v>334</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>260</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8465,7 +8269,7 @@
         <v>335</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>1470</v>
+        <v>719</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8485,7 +8289,7 @@
         <v>336</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>1062</v>
+        <v>712</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8505,7 +8309,7 @@
         <v>337</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>1540</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8525,7 +8329,7 @@
         <v>338</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>2400</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8545,7 +8349,7 @@
         <v>339</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>719</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8565,7 +8369,7 @@
         <v>340</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>712</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8579,7 +8383,7 @@
         <v>341</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>1960</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8593,7 +8397,7 @@
         <v>342</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8607,7 +8411,7 @@
         <v>343</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8621,7 +8425,7 @@
         <v>344</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>7050</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8635,7 +8439,7 @@
         <v>345</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>7850</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8649,7 +8453,7 @@
         <v>346</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>170</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8660,10 +8464,10 @@
         <v>3290</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>347</v>
+        <v>150</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>3370</v>
+        <v>812</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8674,10 +8478,10 @@
         <v>3327</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>4450</v>
+        <v>832</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8688,10 +8492,10 @@
         <v>3305</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>4670</v>
+        <v>923</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8702,10 +8506,10 @@
         <v>3307</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>350</v>
+        <v>131</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>4850</v>
+        <v>928</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8716,10 +8520,10 @@
         <v>3895</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>5450</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8730,10 +8534,10 @@
         <v>3815</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>352</v>
+        <v>43</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>5000</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8744,10 +8548,10 @@
         <v>3737</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>5750</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8758,10 +8562,10 @@
         <v>4280</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>354</v>
+        <v>137</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>6500</v>
+        <v>898</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8772,10 +8576,10 @@
         <v>4330</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>355</v>
+        <v>171</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>146</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8786,10 +8590,10 @@
         <v>4907</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>356</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>3390</v>
+        <v>947</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8800,10 +8604,10 @@
         <v>4835</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>357</v>
+        <v>194</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>815</v>
+        <v>832</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8814,10 +8618,10 @@
         <v>4905</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>1720</v>
+        <v>947</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8828,10 +8632,10 @@
         <v>3755</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>359</v>
+        <v>127</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>1027</v>
+        <v>947</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8842,10 +8646,10 @@
         <v>4255</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>2640</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8856,10 +8660,10 @@
         <v>4360</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>812</v>
+        <v>601</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8870,10 +8674,10 @@
         <v>4925</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>832</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8884,10 +8688,10 @@
         <v>5885</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>923</v>
+        <v>830</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8898,10 +8702,10 @@
         <v>5735</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>928</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8912,10 +8716,10 @@
         <v>851</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>5435</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8926,10 +8730,10 @@
         <v>1152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>5435</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8940,10 +8744,10 @@
         <v>1164</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8954,10 +8758,10 @@
         <v>1166</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>137</v>
+        <v>351</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>898</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8968,10 +8772,10 @@
         <v>879</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>695</v>
+        <v>890</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8982,10 +8786,10 @@
         <v>880</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>947</v>
+        <v>980</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8996,10 +8800,10 @@
         <v>879</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>194</v>
+        <v>354</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>832</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -9010,10 +8814,10 @@
         <v>1090</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>108</v>
+        <v>355</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>947</v>
+        <v>900</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9024,10 +8828,10 @@
         <v>2585</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>947</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -9038,10 +8842,10 @@
         <v>2621</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>608</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9052,10 +8856,10 @@
         <v>2565</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>218</v>
+        <v>358</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>601</v>
+        <v>835</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9066,10 +8870,10 @@
         <v>2581</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>196</v>
+        <v>359</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>1145</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9080,10 +8884,10 @@
         <v>2484</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>830</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9094,10 +8898,10 @@
         <v>2505</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>1075</v>
+        <v>835</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9108,10 +8912,10 @@
         <v>1497</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>1062</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9122,10 +8926,10 @@
         <v>1498</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9139,7 +8943,7 @@
         <v>364</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>2300</v>
+        <v>780</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9153,7 +8957,7 @@
         <v>365</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>2300</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9167,7 +8971,7 @@
         <v>366</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>890</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9181,7 +8985,7 @@
         <v>367</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>980</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9195,7 +8999,7 @@
         <v>368</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>1450</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9209,7 +9013,7 @@
         <v>369</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>900</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9223,7 +9027,7 @@
         <v>370</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>3330</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9237,7 +9041,7 @@
         <v>371</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>1220</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9251,7 +9055,7 @@
         <v>372</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>835</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9265,7 +9069,7 @@
         <v>373</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>3830</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9279,7 +9083,7 @@
         <v>374</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>3100</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9293,7 +9097,7 @@
         <v>375</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>835</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9303,12 +9107,6 @@
       <c r="D137" s="2" t="n">
         <v>1476</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F137" s="2" t="n">
-        <v>1075</v>
-      </c>
     </row>
     <row r="138" spans="1:8">
       <c r="C138" s="2" t="s">
@@ -9317,12 +9115,6 @@
       <c r="D138" s="2" t="n">
         <v>1467</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F138" s="2" t="n">
-        <v>1480</v>
-      </c>
     </row>
     <row r="139" spans="1:8">
       <c r="C139" s="2" t="s">
@@ -9331,12 +9123,6 @@
       <c r="D139" s="2" t="n">
         <v>992</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F139" s="2" t="n">
-        <v>780</v>
-      </c>
     </row>
     <row r="140" spans="1:8">
       <c r="C140" s="2" t="s">
@@ -9345,12 +9131,6 @@
       <c r="D140" s="2" t="n">
         <v>2091</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F140" s="2" t="n">
-        <v>3320</v>
-      </c>
     </row>
     <row r="141" spans="1:8">
       <c r="C141" s="2" t="s">
@@ -9359,12 +9139,6 @@
       <c r="D141" s="2" t="n">
         <v>1590</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F141" s="2" t="n">
-        <v>2750</v>
-      </c>
     </row>
     <row r="142" spans="1:8">
       <c r="C142" s="2" t="s">
@@ -9373,12 +9147,6 @@
       <c r="D142" s="2" t="n">
         <v>1595</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F142" s="2" t="n">
-        <v>2010</v>
-      </c>
     </row>
     <row r="143" spans="1:8">
       <c r="C143" s="2" t="s">
@@ -9387,12 +9155,6 @@
       <c r="D143" s="2" t="n">
         <v>1869</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F143" s="2" t="n">
-        <v>1030</v>
-      </c>
     </row>
     <row r="144" spans="1:8">
       <c r="C144" s="2" t="s">
@@ -9401,12 +9163,6 @@
       <c r="D144" s="2" t="n">
         <v>1871</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F144" s="2" t="n">
-        <v>1025</v>
-      </c>
     </row>
     <row r="145" spans="1:8">
       <c r="C145" s="2" t="s">
@@ -9415,12 +9171,6 @@
       <c r="D145" s="2" t="n">
         <v>2170</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F145" s="2" t="n">
-        <v>1160</v>
-      </c>
     </row>
     <row r="146" spans="1:8">
       <c r="C146" s="2" t="s">
@@ -9429,12 +9179,6 @@
       <c r="D146" s="2" t="n">
         <v>1480</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F146" s="2" t="n">
-        <v>1540</v>
-      </c>
     </row>
     <row r="147" spans="1:8">
       <c r="C147" s="2" t="s">
@@ -9443,12 +9187,6 @@
       <c r="D147" s="2" t="n">
         <v>1873</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F147" s="2" t="n">
-        <v>1540</v>
-      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="C148" s="2" t="s">
@@ -9457,12 +9195,6 @@
       <c r="D148" s="2" t="n">
         <v>1461</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F148" s="2" t="n">
-        <v>1030</v>
-      </c>
     </row>
     <row r="149" spans="1:8">
       <c r="C149" s="2" t="s">
@@ -9471,12 +9203,6 @@
       <c r="D149" s="2" t="n">
         <v>2178</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F149" s="2" t="n">
-        <v>2750</v>
-      </c>
     </row>
     <row r="150" spans="1:8">
       <c r="C150" s="2" t="s">
@@ -9484,12 +9210,6 @@
       </c>
       <c r="D150" s="2" t="n">
         <v>746</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F150" s="2" t="n">
-        <v>1400</v>
       </c>
     </row>
     <row r="151" spans="1:8">

--- a/project/yilaitong/报价.xlsx
+++ b/project/yilaitong/报价.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
   <si>
     <t>苹果型号</t>
   </si>
@@ -277,12 +277,198 @@
     <t>华为型号</t>
   </si>
   <si>
+    <t>华为 P 系列--P10--全网金4G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P10--全网黑4G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P10--全网蓝4G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P10 Plus--全网金6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P10 Plus--全网草木绿6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P10--全网白4G+128G</t>
+  </si>
+  <si>
     <t>荣耀 畅玩 系列--畅玩6--全网金16G</t>
   </si>
   <si>
     <t>荣耀 畅玩 系列--畅玩6--全网白16G</t>
   </si>
   <si>
+    <t>华为 P 系列--P10 Plus--全网亮黑6G+128G</t>
+  </si>
+  <si>
+    <t>华为 麦芒 系列--麦芒6--全网亮黑64G</t>
+  </si>
+  <si>
+    <t>华为 麦芒 系列--麦芒6--全网流光金64G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网高配极光蓝4G+64G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网高配铂光金4G+64G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网尊享铂光金4G+128G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--Mate10--全网摩卡金4G+64G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--Mate10--全网摩卡金6G+128G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网标准铂光金4G+32G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--Mate10--全网亮黑4G+64G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--Mate10--全网亮黑6G+128G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网尊享极光蓝4G+128G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网高配幻夜黑4G+64G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网尊享幻夜黑4G+128G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--Mate10--全网香槟金6G+128G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--Mate10--全网香槟金4G+64G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网标准极光蓝4G+32G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网标准幻夜黑4G+32G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--mate10 Pro--全网银钻灰6G+64G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--mate10 Pro--全网银钻灰6G+128G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--mate10 Pro--全网宝石蓝6G+128G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--mate10 Pro--全网摩卡金6G+128G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--mate10 Pro--全网摩卡金6G+64G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--mate10 Pro--全网宝石蓝6G+64G</t>
+  </si>
+  <si>
+    <t>华为 麦芒 系列--麦芒6--全网极光蓝64G</t>
+  </si>
+  <si>
+    <t>华为 Mate 系列--mate10 Pro--全网樱粉金6G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀V10--全网高配幻夜黑6G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀V10--全网高配沙滩金6G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀V10--全网高配极光蓝6G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀V10--全网尊享幻夜黑6G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀V10--全网尊享魅丽红6G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀V10--全网尊享极光蓝6G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀V10--全网尊享沙滩金6G+128G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--Nova2s--全网曜石黑6G+64G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--Nova2s--全网银钻灰6G+64G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网标准魅焰红4G+32G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网尊享魅焰红4G+128G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7X--全网高配魅焰红4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀V10--全网高配魅丽红6G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网标准魅海蓝3G+32G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网高配魅海蓝4G+32G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--Nova2s--全网浅艾蓝6G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网高配海鸥灰4G+32G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网尊享海鸥灰4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网尊享魅海蓝4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网标准海鸥灰3G+32G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网标准幻夜黑3G+32G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网标准珠光白3G+32G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网尊享珠光白4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网尊享幻夜黑4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9青春版--全网高配幻夜黑4G+32G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--Nova2s--全网浅艾蓝4G+64G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--Nova2s--全网银钻灰6G+128G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--Nova2s--全网浅艾蓝6G+128G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--Nova2s--全网樱粉金6G+64G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--Nova2s--全网曜石黑6G+128G</t>
+  </si>
+  <si>
     <t>荣耀 畅玩 系列--畅玩7C--全网幻夜黑3G+32G</t>
   </si>
   <si>
@@ -295,15 +481,60 @@
     <t>荣耀 畅玩 系列--畅玩7C--全网幻夜黑4G+32G</t>
   </si>
   <si>
+    <t>荣耀 畅玩 系列--畅玩7C--全网极光蓝4G+32G</t>
+  </si>
+  <si>
     <t>荣耀 畅玩 系列--畅玩7C--全网铂光金4G+32G</t>
   </si>
   <si>
+    <t>华为 Nova 系列--nova 3e--全网幻夜黑4G+64G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--nova 3e--全网克莱因蓝4G+64G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--nova 3e--全网幻夜黑4G+128G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7C--全网铂光金4G+64G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7C--全网极光蓝4G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8--全网标准黑3G+32G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8--全网标准金3G+32G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--nova 3e--全网克莱因蓝4G+128G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7C--全网幻夜黑4G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8 Plus--全网金4G+64G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--nova 3e--全网樱语粉4G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8 Plus--全网黑4G+64G</t>
+  </si>
+  <si>
     <t>荣耀 畅玩 系列--畅玩7A--全网幻夜黑3G+32G</t>
   </si>
   <si>
     <t>荣耀 畅玩 系列--畅玩7A--全网极光蓝3G+32G</t>
   </si>
   <si>
+    <t>华为 Nova 系列--nova 3e--全网樱语粉4G+128G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8 Plus--全网蓝4G+64G</t>
+  </si>
+  <si>
     <t>荣耀 畅玩 系列--畅玩7A--全网幻夜黑2G+32G</t>
   </si>
   <si>
@@ -316,459 +547,249 @@
     <t>荣耀 畅玩 系列--畅玩7A--全网铂光金3G+32G</t>
   </si>
   <si>
+    <t>华为 畅享 系列--畅享8--全网标准蓝3G+32G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网香槟金6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网亮黑6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网宝石蓝6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网樱粉金6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网亮黑6G+128G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网樱粉金6G+128G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网宝石蓝6G+128G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20 Pro--全网宝石蓝6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20 Pro--全网亮黑6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20 Pro--全网亮黑6G+128G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20 Pro--全网宝石蓝6G+128G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20 Pro--全网樱粉金6G+128G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网香槟金6G+128G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20 Pro--全网樱粉金6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20 Pro--全网极光色6G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20 Pro--全网极光色6G+128G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20 Pro--全网宝石蓝6G+256G</t>
+  </si>
+  <si>
     <t>荣耀 畅玩 系列--畅玩7C--全网魅焰红3G+32G</t>
   </si>
   <si>
+    <t>华为 畅享 系列--畅享8--全网高配黑4G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8--全网高配金4G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8--全网高配蓝4G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8e--全网黑3G+32G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8e--全网金3G+32G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8e--全网蓝3G+32G</t>
+  </si>
+  <si>
+    <t>荣耀 畅玩 系列--畅玩7C--全网魅焰红4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀10--全网幻夜黑6G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀10--全网幻影蓝6G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀10--全网海鸥灰6G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀10--全网幻影紫6G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀10--全网幻夜黑6G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀10--全网幻影紫6G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8 Plus--全网黑4G+128G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8 Plus--全网金4G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀10--全网幻影蓝6G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8 Plus--全网蓝4G+128G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--nova 3e--全网铂光金4G+128G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网极光色6G+128G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8 Plus--全网粉4G+64G</t>
+  </si>
+  <si>
+    <t>华为 P 系列--P20--全网极光色6G+64G</t>
+  </si>
+  <si>
     <t>荣耀 畅玩 系列--畅玩7--全网金16G</t>
   </si>
   <si>
     <t>荣耀 畅玩 系列--畅玩7--全网黑16G</t>
   </si>
   <si>
+    <t>华为 畅享 系列--畅享8--全网高配粉4G+64G</t>
+  </si>
+  <si>
     <t>荣耀 畅玩 系列--畅玩7--全网蓝16G</t>
   </si>
   <si>
-    <t>华为 麦芒 系列--麦芒6--全网亮黑64G</t>
-  </si>
-  <si>
-    <t>华为 麦芒 系列--麦芒6--全网流光金64G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网高配铂光金4G+64G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网尊享铂光金4G+128G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网标准铂光金4G+32G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--Mate10--全网亮黑4G+64G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--Mate10--全网摩卡金4G+64G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--Mate10--全网亮黑6G+128G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--Mate10--全网摩卡金6G+128G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网标准极光蓝4G+32G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网高配极光蓝4G+64G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网标准幻夜黑4G+32G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网尊享极光蓝4G+128G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网尊享幻夜黑4G+128G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--Mate10--全网香槟金4G+64G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网高配幻夜黑4G+64G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--Mate10--全网香槟金6G+128G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--mate10 Pro--全网银钻灰6G+64G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--mate10 Pro--全网宝石蓝6G+64G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--mate10 Pro--全网银钻灰6G+128G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--mate10 Pro--全网宝石蓝6G+128G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--mate10 Pro--全网摩卡金6G+128G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--mate10 Pro--全网摩卡金6G+64G</t>
-  </si>
-  <si>
-    <t>华为 麦芒 系列--麦芒6--全网极光蓝64G</t>
-  </si>
-  <si>
-    <t>华为 Mate 系列--mate10 Pro--全网樱粉金6G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀V10--全网高配幻夜黑6G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀V10--全网高配极光蓝6G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀V10--全网尊享幻夜黑6G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀V10--全网尊享极光蓝6G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀V10--全网尊享魅丽红6G+128G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网高配魅焰红4G+64G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网尊享魅焰红4G+128G</t>
+    <t>华为 Nova 系列--nova 3e--全网铂光金4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9i--全网魅海蓝4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9i--全网幻夜黑4G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8--全网标准粉3G+32G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀Play--全网幻夜黑6G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9i--全网幻夜黑4G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9i--全网魅海蓝4G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀Play--全网幻夜黑4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀Play--全网极光蓝4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀Play--全网极光蓝6G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9i--全网梦幻紫4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀Play--全网星云紫4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9i--全网碧玉青4G+64G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀Play--全网星云紫6G+64G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8e 青春版--全网金2G+32G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8e 青春版--全网黑2G+32G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9i--全网碧玉青4G+128G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀9i--全网梦幻紫4G+128G</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8e 青春版--全网蓝2G+32G</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--nova 3--6+128G亮黑色</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--nova 3--6+128G蓝楹紫</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--nova 3--6+128G星耀版·樱草金</t>
+  </si>
+  <si>
+    <t>华为 Nova 系列--nova 3--6+128G浅艾蓝</t>
+  </si>
+  <si>
+    <t>华为 畅享 系列--畅享8e--全网粉3G+32G</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀Note10--6+64G幻夜黑</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀Note10--6+128G幻夜黑</t>
+  </si>
+  <si>
+    <t>华为 荣耀 系列--荣耀Note10--6+128G幻影蓝</t>
   </si>
   <si>
     <t>华为 Nova 系列--Nova2s--全网曜石黑4G+64G</t>
   </si>
   <si>
-    <t>华为 Nova 系列--Nova2s--全网曜石黑6G+64G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--Nova2s--全网银钻灰6G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀V10--全网尊享沙滩金6G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀V10--全网高配魅丽红6G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀V10--全网高配沙滩金6G+64G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7X--全网标准魅焰红4G+32G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--Nova2s--全网浅艾蓝6G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网高配魅海蓝4G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网尊享海鸥灰4G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网尊享魅海蓝4G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网标准魅海蓝3G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网标准海鸥灰3G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网标准珠光白3G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网高配海鸥灰4G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网标准幻夜黑3G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网高配幻夜黑4G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9青春版--全网尊享幻夜黑4G+64G</t>
-  </si>
-  <si>
     <t>华为 畅享 系列--畅享7S--全网高配黑4G+64G</t>
   </si>
   <si>
-    <t>华为 Nova 系列--Nova2s--全网浅艾蓝4G+64G</t>
-  </si>
-  <si>
     <t>华为 畅享 系列--畅享7S--全网高配蓝4G+64G</t>
   </si>
   <si>
-    <t>华为 Nova 系列--Nova2s--全网银钻灰6G+128G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--Nova2s--全网曜石黑6G+128G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--Nova2s--全网浅艾蓝6G+128G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--Nova2s--全网樱粉金6G+64G</t>
-  </si>
-  <si>
     <t>华为 畅享 系列--畅享7 Plus--粉64G</t>
   </si>
   <si>
     <t>华为 Nova 系列--Nova2s--全网樱粉金6G+128G</t>
   </si>
   <si>
-    <t>荣耀 畅玩 系列--畅玩7C--全网幻夜黑4G+64G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7C--全网铂光金4G+64G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7C--全网极光蓝4G+64G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7C--全网极光蓝4G+32G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8--全网标准金3G+32G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8--全网标准黑3G+32G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3e--全网幻夜黑4G+128G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3e--全网克莱因蓝4G+128G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8--全网标准蓝3G+32G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3e--全网克莱因蓝4G+64G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3e--全网樱语粉4G+128G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8 Plus--全网金4G+64G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8 Plus--全网黑4G+64G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8 Plus--全网蓝4G+64G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3e--全网樱语粉4G+64G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3e--全网幻夜黑4G+64G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8--全网高配金4G+64G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8--全网高配黑4G+64G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8--全网高配蓝4G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网宝石蓝6G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网樱粉金6G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网香槟金6G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网樱粉金6G+128G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网宝石蓝6G+128G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20 Pro--全网宝石蓝6G+128G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网亮黑6G+128G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20 Pro--全网宝石蓝6G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20 Pro--全网亮黑6G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20 Pro--全网樱粉金6G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20 Pro--全网亮黑6G+128G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20 Pro--全网宝石蓝6G+256G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网亮黑6G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网香槟金6G+128G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20 Pro--全网极光色6G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20 Pro--全网极光色6G+128G</t>
-  </si>
-  <si>
     <t>华为 P 系列--P20 Pro--全网极光色6G+256G</t>
   </si>
   <si>
-    <t>华为 畅享 系列--畅享8e--全网金3G+32G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20 Pro--全网樱粉金6G+128G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8e--全网黑3G+32G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8e--全网蓝3G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀10--全网幻夜黑6G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀10--全网海鸥灰6G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀10--全网幻影蓝6G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀10--全网幻影紫6G+128G</t>
-  </si>
-  <si>
-    <t>荣耀 畅玩 系列--畅玩7C--全网魅焰红4G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀10--全网幻影蓝6G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀10--全网幻影紫6G+64G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8 Plus--全网金4G+128G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8 Plus--全网黑4G+128G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8 Plus--全网蓝4G+128G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3e--全网铂光金4G+64G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3e--全网铂光金4G+128G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8--全网高配粉4G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网极光色6G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P20--全网极光色6G+128G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8--全网标准粉3G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9i--全网幻夜黑4G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9i--全网魅海蓝4G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9i--全网幻夜黑4G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9i--全网魅海蓝4G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀Play--全网幻夜黑6G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀Play--全网极光蓝4G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀Play--全网极光蓝6G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀Play--全网幻夜黑4G+64G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8e 青春版--全网黑2G+32G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8e 青春版--全网金2G+32G</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8e 青春版--全网蓝2G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9i--全网碧玉青4G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀Play--全网星云紫6G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀Play--全网星云紫4G+64G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9i--全网梦幻紫4G+128G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9i--全网碧玉青4G+64G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3--6+128G亮黑色</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3--6+128G浅艾蓝</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3--6+128G蓝楹紫</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀9i--全网梦幻紫4G+64G</t>
-  </si>
-  <si>
-    <t>华为 Nova 系列--nova 3--6+128G星耀版·樱草金</t>
-  </si>
-  <si>
-    <t>华为 畅享 系列--畅享8e--全网粉3G+32G</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀Note10--6+128G幻夜黑</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀Note10--6+128G幻影蓝</t>
-  </si>
-  <si>
     <t>华为 荣耀 系列--荣耀10--全网幻夜黑8G+128G</t>
   </si>
   <si>
     <t>华为 荣耀 系列--荣耀10--全网幻影蓝8G+128G</t>
   </si>
   <si>
-    <t>华为 荣耀 系列--荣耀Note10--6+64G幻夜黑</t>
-  </si>
-  <si>
-    <t>华为 荣耀 系列--荣耀10--全网幻夜黑6G+64G</t>
-  </si>
-  <si>
     <t>华为 畅享 系列--畅享7S--全网高配金4G+64G</t>
   </si>
   <si>
     <t>华为 荣耀 系列--荣耀10--全网海鸥灰6G+64G</t>
   </si>
   <si>
-    <t>华为 P 系列--P10--全网金4G+64G</t>
-  </si>
-  <si>
-    <t>华为 P 系列--P10--全网蓝4G+64G</t>
-  </si>
-  <si>
     <t>华为 Mate 系列--mate10 Pro--全网樱粉金6G+64G</t>
   </si>
   <si>
@@ -1090,19 +1111,79 @@
     <t>魅蓝系列--魅蓝6--3+32G香槟金</t>
   </si>
   <si>
+    <t>红米 系列--红米4X--3G+32G全网粉（高配版）</t>
+  </si>
+  <si>
+    <t>红米 系列--红米Note4X--3G+32G磨砂黑</t>
+  </si>
+  <si>
+    <t>小米 系列--小米Max2--4+128G金色</t>
+  </si>
+  <si>
+    <t>红米 系列--红米Note4--3G+32G全网通黑（特供版）</t>
+  </si>
+  <si>
+    <t>黑鲨 系列--黑鲨手机--8+128G极夜黑</t>
+  </si>
+  <si>
+    <t>小米 系列--小米5X--4+64G金色</t>
+  </si>
+  <si>
+    <t>红米 系列--红米Note5A--2G+16G香槟金</t>
+  </si>
+  <si>
     <t>红米 系列--红米5--3G+32GB玫瑰金</t>
   </si>
   <si>
+    <t>小米 系列--小米Mix2--8G+128G皓月白陶瓷</t>
+  </si>
+  <si>
     <t>红米 系列--红米5--3G+32GB黑色</t>
   </si>
   <si>
+    <t>红米 系列--红米note5--6GB+64GB魔力蓝</t>
+  </si>
+  <si>
     <t>红米 系列--红米5--2G+16GB金色</t>
   </si>
   <si>
+    <t>红米 系列--红米S2--4+64G香槟金</t>
+  </si>
+  <si>
+    <t>小米 系列--小米6X--4+64G冰川蓝</t>
+  </si>
+  <si>
+    <t>红米 系列--红米4X--2G+16G全网黑（标准版）</t>
+  </si>
+  <si>
+    <t>小米 系列--小米8SE--4+64G金</t>
+  </si>
+  <si>
+    <t>黑鲨 系列--黑鲨手机--8+128G苍穹灰</t>
+  </si>
+  <si>
+    <t>小米 系列--小米6--6+128G亮黑</t>
+  </si>
+  <si>
+    <t>小米 系列--小米8SE--6+64G红</t>
+  </si>
+  <si>
     <t>红米 系列--红米6 pro--3+32G樱花粉</t>
   </si>
   <si>
+    <t>小米 平板--小米平板4--3+32G金色</t>
+  </si>
+  <si>
+    <t>小米 平板--小米平板4--4+64G金色</t>
+  </si>
+  <si>
     <t>红米 系列--红米6 pro--3+32G巴厘蓝</t>
+  </si>
+  <si>
+    <t>小米 系列--小米6--6+128G亮蓝</t>
+  </si>
+  <si>
+    <t>小米 系列--小米5SPlus--4G+64G全网通金</t>
   </si>
   <si>
     <t>魅族型号</t>
@@ -1596,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3722</v>
+        <v>3712</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3622.5</v>
+        <v>3612.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1607,10 +1688,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3705</v>
+        <v>3695</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3605</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1618,10 +1699,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3712</v>
+        <v>3702</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3612.5</v>
+        <v>3602.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1629,10 +1710,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>3695</v>
+        <v>3685</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3595</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1640,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>4540</v>
+        <v>4530</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4390</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1651,10 +1732,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>4512</v>
+        <v>4502</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4362.5</v>
+        <v>4352.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1662,10 +1743,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>4425</v>
+        <v>4415</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4275</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1673,10 +1754,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>4495</v>
+        <v>4485</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4345</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1684,10 +1765,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>4655</v>
+        <v>4645</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4505</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1695,10 +1776,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>4690</v>
+        <v>4680</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4540</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1706,10 +1787,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>4697</v>
+        <v>4687</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>4547.5</v>
+        <v>4537.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1717,10 +1798,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>5475</v>
+        <v>5465</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5325</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1728,10 +1809,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>5475</v>
+        <v>5465</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5325</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1739,10 +1820,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>5450</v>
+        <v>5440</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1750,10 +1831,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>4527</v>
+        <v>4517</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4377.5</v>
+        <v>4367.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1761,10 +1842,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>4660</v>
+        <v>4650</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4510</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1772,10 +1853,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>5500</v>
+        <v>5490</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>5350</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1783,10 +1864,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>4485</v>
+        <v>4475</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4335</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1794,10 +1875,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>4552</v>
+        <v>4542</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4402.5</v>
+        <v>4392.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1805,10 +1886,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>4557</v>
+        <v>4547</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>4407.5</v>
+        <v>4397.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1816,10 +1897,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>5675</v>
+        <v>5665</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>5525</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1827,10 +1908,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>5710</v>
+        <v>5700</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>5560</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1838,10 +1919,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>5790</v>
+        <v>5780</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>5640</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1849,10 +1930,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>5432</v>
+        <v>5422</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>5282.5</v>
+        <v>5272.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1860,10 +1941,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>5450</v>
+        <v>5440</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1871,10 +1952,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>5432</v>
+        <v>5422</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5282.5</v>
+        <v>5272.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1882,10 +1963,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>6745</v>
+        <v>6735</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6595</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1893,10 +1974,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>6770</v>
+        <v>6760</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6620</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1904,10 +1985,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>6750</v>
+        <v>6740</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6600</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1915,10 +1996,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>3735</v>
+        <v>3725</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>3635</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1926,10 +2007,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>4625</v>
+        <v>4615</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>4475</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1937,10 +2018,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1948,10 +2029,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>7062</v>
+        <v>7052</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>6912.5</v>
+        <v>6902.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1959,10 +2040,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>7062</v>
+        <v>7052</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>6912.5</v>
+        <v>6902.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1970,10 +2051,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>8145</v>
+        <v>8135</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>7995</v>
+        <v>7985</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1981,10 +2062,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>8190</v>
+        <v>8180</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>8040</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1992,10 +2073,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>3935</v>
+        <v>3925</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3835</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2003,10 +2084,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>7095</v>
+        <v>7085</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6945</v>
+        <v>6935</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2014,10 +2095,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>4565</v>
+        <v>4555</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>4415</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2025,10 +2106,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>5737</v>
+        <v>5727</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5587.5</v>
+        <v>5577.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2036,10 +2117,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>5607</v>
+        <v>5597</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>5457.5</v>
+        <v>5447.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2047,10 +2128,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>6757</v>
+        <v>6747</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>6607.5</v>
+        <v>6597.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2496,7 +2577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2523,10 +2604,10 @@
         <v>85</v>
       </c>
       <c r="B2" t="n">
-        <v>600</v>
+        <v>2260</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>500.5</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2534,10 +2615,10 @@
         <v>86</v>
       </c>
       <c r="B3" t="n">
-        <v>606</v>
+        <v>2330</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>506</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2545,10 +2626,10 @@
         <v>87</v>
       </c>
       <c r="B4" t="n">
-        <v>839</v>
+        <v>2270</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>739</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2556,10 +2637,10 @@
         <v>88</v>
       </c>
       <c r="B5" t="n">
-        <v>833</v>
+        <v>2430</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>733.5</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2567,10 +2648,10 @@
         <v>89</v>
       </c>
       <c r="B6" t="n">
-        <v>850</v>
+        <v>2150</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2578,10 +2659,10 @@
         <v>90</v>
       </c>
       <c r="B7" t="n">
-        <v>930</v>
+        <v>2370</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>830</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2589,10 +2670,10 @@
         <v>91</v>
       </c>
       <c r="B8" t="n">
-        <v>933</v>
+        <v>581</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>833.5</v>
+        <v>481.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2600,10 +2681,10 @@
         <v>92</v>
       </c>
       <c r="B9" t="n">
-        <v>823</v>
+        <v>596</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>723</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2611,10 +2692,10 @@
         <v>93</v>
       </c>
       <c r="B10" t="n">
-        <v>827</v>
+        <v>2600</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>727.5</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2622,10 +2703,10 @@
         <v>94</v>
       </c>
       <c r="B11" t="n">
-        <v>717</v>
+        <v>1248</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>617.5</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2633,10 +2714,10 @@
         <v>95</v>
       </c>
       <c r="B12" t="n">
-        <v>737</v>
+        <v>1269</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>637.5</v>
+        <v>1169.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2644,10 +2725,10 @@
         <v>96</v>
       </c>
       <c r="B13" t="n">
-        <v>726</v>
+        <v>1220</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>626</v>
+        <v>1120.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2655,10 +2736,10 @@
         <v>97</v>
       </c>
       <c r="B14" t="n">
-        <v>846</v>
+        <v>1234</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>746</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2666,10 +2747,10 @@
         <v>98</v>
       </c>
       <c r="B15" t="n">
-        <v>850</v>
+        <v>1460</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>750.5</v>
+        <v>1360.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2677,10 +2758,10 @@
         <v>99</v>
       </c>
       <c r="B16" t="n">
-        <v>625</v>
+        <v>2735</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>525.5</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2688,10 +2769,10 @@
         <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>620</v>
+        <v>3305</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>520.5</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2699,10 +2780,10 @@
         <v>101</v>
       </c>
       <c r="B18" t="n">
-        <v>621</v>
+        <v>948</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>521.5</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2710,10 +2791,10 @@
         <v>102</v>
       </c>
       <c r="B19" t="n">
-        <v>1263</v>
+        <v>2732</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1163</v>
+        <v>2582.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2721,10 +2802,10 @@
         <v>103</v>
       </c>
       <c r="B20" t="n">
-        <v>1284</v>
+        <v>3295</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1184.5</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2732,10 +2813,10 @@
         <v>104</v>
       </c>
       <c r="B21" t="n">
-        <v>1251</v>
+        <v>1383</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1151.5</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2743,10 +2824,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>1478</v>
+        <v>1226</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1378</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2754,10 +2835,10 @@
         <v>106</v>
       </c>
       <c r="B23" t="n">
-        <v>965</v>
+        <v>1383</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>865.5</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2765,10 +2846,10 @@
         <v>107</v>
       </c>
       <c r="B24" t="n">
-        <v>2735</v>
+        <v>3282</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2585</v>
+        <v>3132.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2776,10 +2857,10 @@
         <v>108</v>
       </c>
       <c r="B25" t="n">
-        <v>2740</v>
+        <v>2717</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2590</v>
+        <v>2567.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2787,10 +2868,10 @@
         <v>109</v>
       </c>
       <c r="B26" t="n">
-        <v>3305</v>
+        <v>948</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>3155</v>
+        <v>848</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2798,10 +2879,10 @@
         <v>110</v>
       </c>
       <c r="B27" t="n">
-        <v>3310</v>
+        <v>950</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>3160</v>
+        <v>850</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2809,10 +2890,10 @@
         <v>111</v>
       </c>
       <c r="B28" t="n">
-        <v>965</v>
+        <v>3212</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>865.5</v>
+        <v>3062.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2820,10 +2901,10 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>1238</v>
+        <v>3850</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1138</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2831,10 +2912,10 @@
         <v>113</v>
       </c>
       <c r="B30" t="n">
-        <v>967</v>
+        <v>3712</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>867.5</v>
+        <v>3562.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2842,10 +2923,10 @@
         <v>114</v>
       </c>
       <c r="B31" t="n">
-        <v>1400</v>
+        <v>3692</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1300.5</v>
+        <v>3542.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2853,10 +2934,10 @@
         <v>115</v>
       </c>
       <c r="B32" t="n">
-        <v>1400</v>
+        <v>3177</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1300.5</v>
+        <v>3027.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2864,10 +2945,10 @@
         <v>116</v>
       </c>
       <c r="B33" t="n">
-        <v>2725</v>
+        <v>3165</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2575</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2875,10 +2956,10 @@
         <v>117</v>
       </c>
       <c r="B34" t="n">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1143.5</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2886,10 +2967,10 @@
         <v>118</v>
       </c>
       <c r="B35" t="n">
-        <v>3285</v>
+        <v>1880</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>3135</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2897,10 +2978,10 @@
         <v>119</v>
       </c>
       <c r="B36" t="n">
-        <v>3210</v>
+        <v>2192</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>3060</v>
+        <v>2042.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2908,10 +2989,10 @@
         <v>120</v>
       </c>
       <c r="B37" t="n">
-        <v>3170</v>
+        <v>2185</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>3020</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2919,10 +3000,10 @@
         <v>121</v>
       </c>
       <c r="B38" t="n">
-        <v>3860</v>
+        <v>2154</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3710</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2930,10 +3011,10 @@
         <v>122</v>
       </c>
       <c r="B39" t="n">
-        <v>3695</v>
+        <v>2421</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>3545</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2941,10 +3022,10 @@
         <v>123</v>
       </c>
       <c r="B40" t="n">
-        <v>3685</v>
+        <v>2421</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>3535</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2952,10 +3033,10 @@
         <v>124</v>
       </c>
       <c r="B41" t="n">
-        <v>3175</v>
+        <v>2516</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>3025</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2963,10 +3044,10 @@
         <v>125</v>
       </c>
       <c r="B42" t="n">
-        <v>1236</v>
+        <v>2486</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1136.5</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2974,10 +3055,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="n">
-        <v>1895</v>
+        <v>1813</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1795</v>
+        <v>1713.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2985,10 +3066,10 @@
         <v>127</v>
       </c>
       <c r="B44" t="n">
-        <v>2207</v>
+        <v>1807</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2057.5</v>
+        <v>1707.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2996,10 +3077,10 @@
         <v>128</v>
       </c>
       <c r="B45" t="n">
-        <v>2170</v>
+        <v>948</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2020</v>
+        <v>848.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3007,10 +3088,10 @@
         <v>129</v>
       </c>
       <c r="B46" t="n">
-        <v>2436</v>
+        <v>1492</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2286</v>
+        <v>1392.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3018,10 +3099,10 @@
         <v>130</v>
       </c>
       <c r="B47" t="n">
-        <v>2525</v>
+        <v>1227</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2375</v>
+        <v>1127.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3029,10 +3110,10 @@
         <v>131</v>
       </c>
       <c r="B48" t="n">
-        <v>2435</v>
+        <v>2179</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2285</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3040,10 +3121,10 @@
         <v>132</v>
       </c>
       <c r="B49" t="n">
-        <v>1245</v>
+        <v>934</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1145</v>
+        <v>834</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3051,10 +3132,10 @@
         <v>133</v>
       </c>
       <c r="B50" t="n">
-        <v>1507</v>
+        <v>1013</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>1407.5</v>
+        <v>913</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3062,10 +3143,10 @@
         <v>134</v>
       </c>
       <c r="B51" t="n">
-        <v>1770</v>
+        <v>1819</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>1670</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3073,10 +3154,10 @@
         <v>135</v>
       </c>
       <c r="B52" t="n">
-        <v>1828</v>
+        <v>970</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1728.5</v>
+        <v>870.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3084,10 +3165,10 @@
         <v>136</v>
       </c>
       <c r="B53" t="n">
-        <v>1822</v>
+        <v>1309</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1722.5</v>
+        <v>1209.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3095,10 +3176,10 @@
         <v>137</v>
       </c>
       <c r="B54" t="n">
-        <v>2500</v>
+        <v>1336</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2350</v>
+        <v>1236.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3106,10 +3187,10 @@
         <v>138</v>
       </c>
       <c r="B55" t="n">
-        <v>2193</v>
+        <v>900</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2043.5</v>
+        <v>800.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3117,10 +3198,10 @@
         <v>139</v>
       </c>
       <c r="B56" t="n">
-        <v>2200</v>
+        <v>927</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>2050</v>
+        <v>827.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3128,10 +3209,10 @@
         <v>140</v>
       </c>
       <c r="B57" t="n">
-        <v>966</v>
+        <v>901</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>866</v>
+        <v>801.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3139,10 +3220,10 @@
         <v>141</v>
       </c>
       <c r="B58" t="n">
-        <v>1833</v>
+        <v>1370</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1733.5</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3150,10 +3231,10 @@
         <v>142</v>
       </c>
       <c r="B59" t="n">
-        <v>1030</v>
+        <v>1327</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>930.5</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3161,10 +3242,10 @@
         <v>143</v>
       </c>
       <c r="B60" t="n">
-        <v>1327</v>
+        <v>1013</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1227</v>
+        <v>913</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3172,10 +3253,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="n">
-        <v>1354</v>
+        <v>1720</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1254</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3183,10 +3264,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="n">
-        <v>951</v>
+        <v>2212</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>851</v>
+        <v>2062.5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3194,10 +3275,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="n">
-        <v>918</v>
+        <v>2161</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>818</v>
+        <v>2011.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3205,10 +3286,10 @@
         <v>147</v>
       </c>
       <c r="B64" t="n">
-        <v>916</v>
+        <v>2080</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>816.5</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3216,10 +3297,10 @@
         <v>148</v>
       </c>
       <c r="B65" t="n">
-        <v>988</v>
+        <v>2174</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>888</v>
+        <v>2024.5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3227,10 +3308,10 @@
         <v>149</v>
       </c>
       <c r="B66" t="n">
-        <v>945</v>
+        <v>820</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>845</v>
+        <v>720.5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3238,10 +3319,10 @@
         <v>150</v>
       </c>
       <c r="B67" t="n">
-        <v>1030</v>
+        <v>815</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>930.5</v>
+        <v>715</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3249,10 +3330,10 @@
         <v>151</v>
       </c>
       <c r="B68" t="n">
-        <v>1344</v>
+        <v>831</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>1244.5</v>
+        <v>731.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3260,10 +3341,10 @@
         <v>152</v>
       </c>
       <c r="B69" t="n">
-        <v>1159</v>
+        <v>915</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1059.5</v>
+        <v>815</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3271,10 +3352,10 @@
         <v>153</v>
       </c>
       <c r="B70" t="n">
-        <v>1735</v>
+        <v>915</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>1635</v>
+        <v>815</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3282,10 +3363,10 @@
         <v>154</v>
       </c>
       <c r="B71" t="n">
-        <v>1192</v>
+        <v>915</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>1092.5</v>
+        <v>815</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3293,10 +3374,10 @@
         <v>155</v>
       </c>
       <c r="B72" t="n">
-        <v>2226</v>
+        <v>1673</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>2076</v>
+        <v>1573.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3304,10 +3385,10 @@
         <v>156</v>
       </c>
       <c r="B73" t="n">
-        <v>2189</v>
+        <v>1671</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>2039.5</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3315,10 +3396,10 @@
         <v>157</v>
       </c>
       <c r="B74" t="n">
-        <v>2176</v>
+        <v>1753</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>2026</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3326,10 +3407,10 @@
         <v>158</v>
       </c>
       <c r="B75" t="n">
-        <v>2090</v>
+        <v>1072</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1990</v>
+        <v>972.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3337,10 +3418,10 @@
         <v>159</v>
       </c>
       <c r="B76" t="n">
-        <v>1170</v>
+        <v>1073</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1070</v>
+        <v>973</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3348,10 +3429,10 @@
         <v>160</v>
       </c>
       <c r="B77" t="n">
-        <v>2407</v>
+        <v>936</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>2257.5</v>
+        <v>836</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3359,10 +3440,10 @@
         <v>161</v>
       </c>
       <c r="B78" t="n">
-        <v>1093</v>
+        <v>960</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>993.5</v>
+        <v>860</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3370,10 +3451,10 @@
         <v>162</v>
       </c>
       <c r="B79" t="n">
-        <v>1090</v>
+        <v>1765</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>990</v>
+        <v>1665.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3381,10 +3462,10 @@
         <v>163</v>
       </c>
       <c r="B80" t="n">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>990.5</v>
+        <v>976</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3392,10 +3473,10 @@
         <v>164</v>
       </c>
       <c r="B81" t="n">
-        <v>925</v>
+        <v>1315</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>825</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3403,10 +3484,10 @@
         <v>165</v>
       </c>
       <c r="B82" t="n">
-        <v>960</v>
+        <v>1671</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>860</v>
+        <v>1571.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3414,10 +3495,10 @@
         <v>166</v>
       </c>
       <c r="B83" t="n">
-        <v>935</v>
+        <v>1314</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>835</v>
+        <v>1214.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3425,10 +3506,10 @@
         <v>167</v>
       </c>
       <c r="B84" t="n">
-        <v>1768</v>
+        <v>804</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>1668</v>
+        <v>704</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3436,10 +3517,10 @@
         <v>168</v>
       </c>
       <c r="B85" t="n">
-        <v>1775</v>
+        <v>808</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>1675</v>
+        <v>708.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3447,10 +3528,10 @@
         <v>169</v>
       </c>
       <c r="B86" t="n">
-        <v>960</v>
+        <v>1796</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>860</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3458,10 +3539,10 @@
         <v>170</v>
       </c>
       <c r="B87" t="n">
-        <v>1685</v>
+        <v>1314</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1585.5</v>
+        <v>1214.5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3469,10 +3550,10 @@
         <v>171</v>
       </c>
       <c r="B88" t="n">
-        <v>1805</v>
+        <v>698</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>1705</v>
+        <v>598.5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3480,10 +3561,10 @@
         <v>172</v>
       </c>
       <c r="B89" t="n">
-        <v>1330</v>
+        <v>719</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>1230</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3491,10 +3572,10 @@
         <v>173</v>
       </c>
       <c r="B90" t="n">
-        <v>1329</v>
+        <v>707</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>1229.5</v>
+        <v>607.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3502,10 +3583,10 @@
         <v>174</v>
       </c>
       <c r="B91" t="n">
-        <v>1329</v>
+        <v>827</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>1229.5</v>
+        <v>727.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3513,10 +3594,10 @@
         <v>175</v>
       </c>
       <c r="B92" t="n">
-        <v>1686</v>
+        <v>960</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>1586</v>
+        <v>860</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3524,10 +3605,10 @@
         <v>176</v>
       </c>
       <c r="B93" t="n">
-        <v>1688</v>
+        <v>3280</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>1588</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3535,10 +3616,10 @@
         <v>177</v>
       </c>
       <c r="B94" t="n">
-        <v>1159</v>
+        <v>3317</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>1059</v>
+        <v>3167.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3546,10 +3627,10 @@
         <v>178</v>
       </c>
       <c r="B95" t="n">
-        <v>1146</v>
+        <v>3285</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>1046.5</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3557,10 +3638,10 @@
         <v>179</v>
       </c>
       <c r="B96" t="n">
-        <v>1159</v>
+        <v>3270</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>1059</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3568,10 +3649,10 @@
         <v>180</v>
       </c>
       <c r="B97" t="n">
-        <v>3290</v>
+        <v>3892</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>3140</v>
+        <v>3742.5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3579,10 +3660,10 @@
         <v>181</v>
       </c>
       <c r="B98" t="n">
-        <v>3260</v>
+        <v>3780</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>3110</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3590,10 +3671,10 @@
         <v>182</v>
       </c>
       <c r="B99" t="n">
-        <v>3290</v>
+        <v>3745</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>3140</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3601,10 +3682,10 @@
         <v>183</v>
       </c>
       <c r="B100" t="n">
-        <v>3800</v>
+        <v>4260</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>3650</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3612,10 +3693,10 @@
         <v>184</v>
       </c>
       <c r="B101" t="n">
-        <v>3760</v>
+        <v>4317</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>3610</v>
+        <v>4167.5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3623,10 +3704,10 @@
         <v>185</v>
       </c>
       <c r="B102" t="n">
-        <v>4835</v>
+        <v>4900</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>4685</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3634,10 +3715,10 @@
         <v>186</v>
       </c>
       <c r="B103" t="n">
-        <v>3905</v>
+        <v>4827</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>3755</v>
+        <v>4677.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3645,10 +3726,10 @@
         <v>187</v>
       </c>
       <c r="B104" t="n">
-        <v>4272</v>
+        <v>4877</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>4122.5</v>
+        <v>4727.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3656,10 +3737,10 @@
         <v>188</v>
       </c>
       <c r="B105" t="n">
-        <v>4330</v>
+        <v>3750</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>4180</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3667,10 +3748,10 @@
         <v>189</v>
       </c>
       <c r="B106" t="n">
-        <v>4230</v>
+        <v>4235</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>4080</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3678,10 +3759,10 @@
         <v>190</v>
       </c>
       <c r="B107" t="n">
-        <v>4915</v>
+        <v>4353</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>4765</v>
+        <v>4203.5</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3689,10 +3770,10 @@
         <v>191</v>
       </c>
       <c r="B108" t="n">
-        <v>5730</v>
+        <v>4893</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>5580</v>
+        <v>4743.5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3700,10 +3781,10 @@
         <v>192</v>
       </c>
       <c r="B109" t="n">
-        <v>3327</v>
+        <v>5725</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>3177.5</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3711,10 +3792,10 @@
         <v>193</v>
       </c>
       <c r="B110" t="n">
-        <v>3770</v>
+        <v>832</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>3620</v>
+        <v>732</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3722,10 +3803,10 @@
         <v>194</v>
       </c>
       <c r="B111" t="n">
-        <v>4362</v>
+        <v>1131</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>4212.5</v>
+        <v>1031.5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3733,10 +3814,10 @@
         <v>195</v>
       </c>
       <c r="B112" t="n">
-        <v>4905</v>
+        <v>1143</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>4755</v>
+        <v>1043.5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3744,10 +3825,10 @@
         <v>196</v>
       </c>
       <c r="B113" t="n">
-        <v>5850</v>
+        <v>1144</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>5700</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3755,10 +3836,10 @@
         <v>197</v>
       </c>
       <c r="B114" t="n">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>775</v>
+        <v>763.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3766,10 +3847,10 @@
         <v>198</v>
       </c>
       <c r="B115" t="n">
-        <v>4885</v>
+        <v>865</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>4735</v>
+        <v>765</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3777,10 +3858,10 @@
         <v>199</v>
       </c>
       <c r="B116" t="n">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>774</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3788,10 +3869,10 @@
         <v>200</v>
       </c>
       <c r="B117" t="n">
-        <v>875</v>
+        <v>1073</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>775</v>
+        <v>973.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3799,10 +3880,10 @@
         <v>201</v>
       </c>
       <c r="B118" t="n">
-        <v>2595</v>
+        <v>2577</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>2445</v>
+        <v>2427.5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3810,10 +3891,10 @@
         <v>202</v>
       </c>
       <c r="B119" t="n">
-        <v>2561</v>
+        <v>2584</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>2411</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3821,10 +3902,10 @@
         <v>203</v>
       </c>
       <c r="B120" t="n">
-        <v>2601</v>
+        <v>2543</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>2451.5</v>
+        <v>2393.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3832,10 +3913,10 @@
         <v>204</v>
       </c>
       <c r="B121" t="n">
-        <v>2577</v>
+        <v>2560</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>2427.5</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3843,10 +3924,10 @@
         <v>205</v>
       </c>
       <c r="B122" t="n">
-        <v>1091</v>
+        <v>2473</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>991</v>
+        <v>2323.5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3854,10 +3935,10 @@
         <v>206</v>
       </c>
       <c r="B123" t="n">
-        <v>2490</v>
+        <v>2480</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>2340</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3865,10 +3946,10 @@
         <v>207</v>
       </c>
       <c r="B124" t="n">
-        <v>2492</v>
+        <v>1476</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>2342.5</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3876,10 +3957,10 @@
         <v>208</v>
       </c>
       <c r="B125" t="n">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>1391.5</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3887,10 +3968,10 @@
         <v>209</v>
       </c>
       <c r="B126" t="n">
-        <v>1491</v>
+        <v>2475</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>1391.5</v>
+        <v>2325.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3898,10 +3979,10 @@
         <v>210</v>
       </c>
       <c r="B127" t="n">
-        <v>1493</v>
+        <v>1477</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>1393</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3909,10 +3990,10 @@
         <v>211</v>
       </c>
       <c r="B128" t="n">
-        <v>1691</v>
+        <v>1760</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>1591</v>
+        <v>1660.5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3920,10 +4001,10 @@
         <v>212</v>
       </c>
       <c r="B129" t="n">
-        <v>1775</v>
+        <v>3895</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>1675.5</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3931,10 +4012,10 @@
         <v>213</v>
       </c>
       <c r="B130" t="n">
-        <v>1189</v>
+        <v>1350</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>1089.5</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3942,10 +4023,10 @@
         <v>214</v>
       </c>
       <c r="B131" t="n">
-        <v>3427</v>
+        <v>3418</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>3277.5</v>
+        <v>3268.5</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3953,10 +4034,10 @@
         <v>215</v>
       </c>
       <c r="B132" t="n">
-        <v>3900</v>
+        <v>606</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>3750</v>
+        <v>506.5</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3964,10 +4045,10 @@
         <v>216</v>
       </c>
       <c r="B133" t="n">
-        <v>980</v>
+        <v>602</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>880</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3975,10 +4056,10 @@
         <v>217</v>
       </c>
       <c r="B134" t="n">
-        <v>1592</v>
+        <v>1174</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1492.5</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3986,10 +4067,10 @@
         <v>218</v>
       </c>
       <c r="B135" t="n">
-        <v>1594</v>
+        <v>603</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>1494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3997,10 +4078,10 @@
         <v>219</v>
       </c>
       <c r="B136" t="n">
-        <v>1463</v>
+        <v>1676</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>1363</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4008,10 +4089,10 @@
         <v>220</v>
       </c>
       <c r="B137" t="n">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>1367.5</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4019,10 +4100,10 @@
         <v>221</v>
       </c>
       <c r="B138" t="n">
-        <v>2093</v>
+        <v>1448</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>1993</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4030,10 +4111,10 @@
         <v>222</v>
       </c>
       <c r="B139" t="n">
-        <v>1860</v>
+        <v>975</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>1760</v>
+        <v>875</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4041,10 +4122,10 @@
         <v>223</v>
       </c>
       <c r="B140" t="n">
-        <v>2163</v>
+        <v>2078</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>2013.5</v>
+        <v>1978.5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4052,10 +4133,10 @@
         <v>224</v>
       </c>
       <c r="B141" t="n">
-        <v>1857</v>
+        <v>1575</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1757.5</v>
+        <v>1475.5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4063,10 +4144,10 @@
         <v>225</v>
       </c>
       <c r="B142" t="n">
-        <v>737</v>
+        <v>1576</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>637</v>
+        <v>1476.5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4074,10 +4155,10 @@
         <v>226</v>
       </c>
       <c r="B143" t="n">
-        <v>740</v>
+        <v>1840</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>640</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4085,10 +4166,10 @@
         <v>227</v>
       </c>
       <c r="B144" t="n">
-        <v>741</v>
+        <v>1842</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>641</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4096,10 +4177,10 @@
         <v>228</v>
       </c>
       <c r="B145" t="n">
-        <v>1640</v>
+        <v>2098</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>1540</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4107,10 +4188,10 @@
         <v>229</v>
       </c>
       <c r="B146" t="n">
-        <v>2168</v>
+        <v>1465</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>2018.5</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4118,10 +4199,10 @@
         <v>230</v>
       </c>
       <c r="B147" t="n">
-        <v>1855</v>
+        <v>1839</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>1755</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4129,10 +4210,10 @@
         <v>231</v>
       </c>
       <c r="B148" t="n">
-        <v>1665</v>
+        <v>1448</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>1565</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4140,10 +4221,10 @@
         <v>232</v>
       </c>
       <c r="B149" t="n">
-        <v>1460</v>
+        <v>2152</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>1360.5</v>
+        <v>2002.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4151,10 +4232,10 @@
         <v>233</v>
       </c>
       <c r="B150" t="n">
-        <v>2892</v>
+        <v>730</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>2742.5</v>
+        <v>630.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4162,10 +4243,10 @@
         <v>234</v>
       </c>
       <c r="B151" t="n">
-        <v>2915</v>
+        <v>728</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>2765</v>
+        <v>628</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4173,10 +4254,10 @@
         <v>235</v>
       </c>
       <c r="B152" t="n">
-        <v>3027</v>
+        <v>1623</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>2877.5</v>
+        <v>1523.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4184,10 +4265,10 @@
         <v>236</v>
       </c>
       <c r="B153" t="n">
-        <v>1480</v>
+        <v>1662</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>1380</v>
+        <v>1562.5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4195,10 +4276,10 @@
         <v>237</v>
       </c>
       <c r="B154" t="n">
-        <v>3015</v>
+        <v>731</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>2865</v>
+        <v>631.5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4206,10 +4287,10 @@
         <v>238</v>
       </c>
       <c r="B155" t="n">
-        <v>850</v>
+        <v>2885</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>750</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4217,10 +4298,10 @@
         <v>239</v>
       </c>
       <c r="B156" t="n">
-        <v>3120</v>
+        <v>3012</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>2970</v>
+        <v>2862.5</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4228,10 +4309,10 @@
         <v>240</v>
       </c>
       <c r="B157" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>3100</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4239,10 +4320,10 @@
         <v>241</v>
       </c>
       <c r="B158" t="n">
-        <v>3350</v>
+        <v>2902</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>3200</v>
+        <v>2752.5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4250,10 +4331,10 @@
         <v>242</v>
       </c>
       <c r="B159" t="n">
-        <v>3350</v>
+        <v>875</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>3200</v>
+        <v>775</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4272,10 +4353,10 @@
         <v>244</v>
       </c>
       <c r="B161" t="n">
-        <v>2485</v>
+        <v>3107</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>2335</v>
+        <v>2957.5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4283,10 +4364,10 @@
         <v>245</v>
       </c>
       <c r="B162" t="n">
-        <v>1254</v>
+        <v>3185</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>1154</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4294,10 +4375,10 @@
         <v>246</v>
       </c>
       <c r="B163" t="n">
-        <v>2465</v>
+        <v>1760</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>2315</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4305,10 +4386,10 @@
         <v>247</v>
       </c>
       <c r="B164" t="n">
-        <v>2270</v>
+        <v>1144</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>2120</v>
+        <v>1044.5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4316,18 +4397,21 @@
         <v>248</v>
       </c>
       <c r="B165" t="n">
-        <v>2270</v>
+        <v>1177</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>2120</v>
+        <v>1077.5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="B166" t="n">
+        <v>1170</v>
+      </c>
       <c r="D166" s="2" t="n">
-        <v>0</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4335,10 +4419,10 @@
         <v>250</v>
       </c>
       <c r="B167" t="n">
-        <v>1210</v>
+        <v>2397</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>1110</v>
+        <v>2247.5</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4346,10 +4430,10 @@
         <v>251</v>
       </c>
       <c r="B168" t="n">
-        <v>1195</v>
+        <v>5850</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>1095</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4357,9 +4441,83 @@
         <v>252</v>
       </c>
       <c r="B169" t="n">
+        <v>3350</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3350</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1244</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2465</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1195</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B176" t="n">
         <v>1200</v>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D176" s="2" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -4377,7 +4535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4390,7 +4548,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4401,117 +4559,117 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B2" t="n">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B3" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B4" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B5" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B6" t="n">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B7" t="n">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>778</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B8" t="n">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>778</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B9" t="n">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>817</v>
+        <v>801.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B10" t="n">
-        <v>1089</v>
+        <v>1071</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>989</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B11" t="n">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>778</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B12" t="n">
         <v>623</v>
@@ -4522,29 +4680,29 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B13" t="n">
-        <v>1082</v>
+        <v>1064</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>982</v>
+        <v>964</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B14" t="n">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>977.5</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B15" t="n">
         <v>740</v>
@@ -4555,128 +4713,128 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B16" t="n">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>977.5</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B17" t="n">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1101</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B18" t="n">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1107.5</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B19" t="n">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1103.5</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B20" t="n">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1342.5</v>
+        <v>1333.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B21" t="n">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1345</v>
+        <v>1332.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B22" t="n">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1382.5</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B23" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>920</v>
+        <v>912.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B24" t="n">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>912.5</v>
+        <v>905</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B25" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>908</v>
+        <v>911.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B26" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>908</v>
+        <v>911.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B27" t="n">
         <v>2930</v>
@@ -4687,40 +4845,40 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B28" t="n">
-        <v>2880</v>
+        <v>2870</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2730</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B29" t="n">
-        <v>3790</v>
+        <v>3780</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>3640</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B30" t="n">
-        <v>3275</v>
+        <v>3257</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>3125</v>
+        <v>3107.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B31" t="n">
         <v>3080</v>
@@ -4731,150 +4889,150 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B32" t="n">
-        <v>3780</v>
+        <v>3815</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>3630</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B33" t="n">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1352.5</v>
+        <v>1343.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B34" t="n">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1433.5</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B35" t="n">
-        <v>1540</v>
+        <v>1522</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1440</v>
+        <v>1422.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B36" t="n">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1385</v>
+        <v>1397.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B37" t="n">
-        <v>1795</v>
+        <v>1780</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1695</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B38" t="n">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1447.5</v>
+        <v>1437.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B39" t="n">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1106</v>
+        <v>1095.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B40" t="n">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1685</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B41" t="n">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B42" t="n">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>614.5</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B43" t="n">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>622</v>
+        <v>604.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B44" t="n">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B45" t="n">
         <v>1770</v>
@@ -4885,18 +5043,18 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B46" t="n">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1687.5</v>
+        <v>1678.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B47" t="n">
         <v>1800</v>
@@ -4907,73 +5065,73 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B48" t="n">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1350</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B49" t="n">
-        <v>2732</v>
+        <v>2721</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2582.5</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B50" t="n">
-        <v>2700</v>
+        <v>2695</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2550</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B51" t="n">
-        <v>2693</v>
+        <v>2684</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2543.5</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B52" t="n">
-        <v>2875</v>
+        <v>2860</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2725</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B53" t="n">
-        <v>2845</v>
+        <v>2830</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2695</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B54" t="n">
         <v>1840</v>
@@ -4984,51 +5142,51 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B55" t="n">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B56" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1890</v>
+        <v>1892.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B57" t="n">
-        <v>2837</v>
+        <v>2826</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2687.5</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B58" t="n">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1372.5</v>
+        <v>1362.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B59" t="n">
         <v>3220</v>
@@ -5039,73 +5197,73 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B60" t="n">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>536.5</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B61" t="n">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>536.5</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B62" t="n">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>536.5</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B63" t="n">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>756</v>
+        <v>738.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B64" t="n">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>730.5</v>
+        <v>713</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B65" t="n">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B66" t="n">
         <v>830</v>
@@ -5116,150 +5274,150 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B67" t="n">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>536</v>
+        <v>518.5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B68" t="n">
-        <v>1174</v>
+        <v>1156</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>1074</v>
+        <v>1056.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B69" t="n">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1152.5</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B70" t="n">
-        <v>2872</v>
+        <v>2861</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>2722.5</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B71" t="n">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>1445</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B72" t="n">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>1445</v>
+        <v>1437.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B73" t="n">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1135</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B74" t="n">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1680</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B75" t="n">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1555</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B76" t="n">
-        <v>1652</v>
+        <v>1641</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1552.5</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B77" t="n">
-        <v>3220</v>
+        <v>3225</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>3070</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B78" t="n">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>827.5</v>
+        <v>817.5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B79" t="n">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>937.5</v>
+        <v>927.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B80" t="n">
         <v>1165</v>
@@ -5270,7 +5428,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B81" t="n">
         <v>680</v>
@@ -5281,7 +5439,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B82" t="n">
         <v>1120</v>
@@ -5292,7 +5450,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B83" t="n">
         <v>1050</v>
@@ -5303,7 +5461,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B84" t="n">
         <v>3370</v>
@@ -5314,7 +5472,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B85" t="n">
         <v>4450</v>
@@ -5325,7 +5483,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B86" t="n">
         <v>4670</v>
@@ -5336,7 +5494,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B87" t="n">
         <v>4850</v>
@@ -5347,7 +5505,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B88" t="n">
         <v>5450</v>
@@ -5358,7 +5516,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B89" t="n">
         <v>5000</v>
@@ -5369,7 +5527,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B90" t="n">
         <v>5750</v>
@@ -5380,7 +5538,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B91" t="n">
         <v>6500</v>
@@ -5391,18 +5549,18 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B92" t="n">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>927.5</v>
+        <v>917.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B93" t="n">
         <v>3350</v>
@@ -5413,7 +5571,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B94" t="n">
         <v>2640</v>
@@ -5424,7 +5582,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B95" t="n">
         <v>812</v>
@@ -5435,7 +5593,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="B96" t="n">
         <v>832</v>
@@ -5446,7 +5604,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B97" t="n">
         <v>928</v>
@@ -5457,7 +5615,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n">
         <v>930</v>
@@ -5490,7 +5648,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B101" t="n">
         <v>900</v>
@@ -5501,7 +5659,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B102" t="n">
         <v>898</v>
@@ -5512,7 +5670,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="B103" t="n">
         <v>695</v>
@@ -5523,7 +5681,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B104" t="n">
         <v>947</v>
@@ -5534,7 +5692,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="B105" t="n">
         <v>832</v>
@@ -5545,7 +5703,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B106" t="n">
         <v>950</v>
@@ -5556,7 +5714,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B107" t="n">
         <v>947</v>
@@ -5567,7 +5725,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B108" t="n">
         <v>946</v>
@@ -5578,7 +5736,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="B109" t="n">
         <v>606</v>
@@ -5589,7 +5747,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="B110" t="n">
         <v>601</v>
@@ -5600,7 +5758,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="B111" t="n">
         <v>601</v>
@@ -5611,7 +5769,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B112" t="n">
         <v>930</v>
@@ -5622,7 +5780,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B113" t="n">
         <v>1145</v>
@@ -5633,18 +5791,18 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B114" t="n">
-        <v>3240</v>
+        <v>3235</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>3090</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B115" t="n">
         <v>830</v>
@@ -5655,29 +5813,29 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B116" t="n">
-        <v>3230</v>
+        <v>3220</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>3080</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B117" t="n">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>972.5</v>
+        <v>962.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B118" t="n">
         <v>1055</v>
@@ -5699,7 +5857,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B120" t="n">
         <v>1485</v>
@@ -5710,7 +5868,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B121" t="n">
         <v>2300</v>
@@ -5721,7 +5879,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B122" t="n">
         <v>2300</v>
@@ -5743,7 +5901,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B124" t="n">
         <v>698</v>
@@ -5754,57 +5912,277 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B125" t="n">
-        <v>835</v>
+        <v>890</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>735</v>
+        <v>790</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B126" t="n">
-        <v>835</v>
+        <v>980</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>735</v>
+        <v>880</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B127" t="n">
-        <v>715</v>
+        <v>1450</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>615</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B128" t="n">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>920</v>
+        <v>800</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B129" t="n">
+        <v>3330</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B131" t="n">
+        <v>710</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B132" t="n">
+        <v>835</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B134" t="n">
+        <v>835</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B136" t="n">
+        <v>715</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B139" t="n">
+        <v>780</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3320</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2750</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1170</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1540</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B147" t="n">
         <v>1025</v>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D147" s="2" t="n">
         <v>925</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2750</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -5834,7 +6212,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5845,7 +6223,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="B2" t="n">
         <v>1180</v>
@@ -5856,18 +6234,18 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="B3" t="n">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1205</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B4" t="n">
         <v>1645</v>
@@ -5878,84 +6256,84 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="B5" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B6" t="n">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>947.5</v>
+        <v>932.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B7" t="n">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="B8" t="n">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="B9" t="n">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="B10" t="n">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="B11" t="n">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>547.5</v>
+        <v>537.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="B12" t="n">
         <v>640</v>
@@ -5966,62 +6344,62 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="B13" t="n">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>787.5</v>
+        <v>772.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="B14" t="n">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="B15" t="n">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>779</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="B16" t="n">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="B17" t="n">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="B18" t="n">
         <v>940</v>
@@ -6032,7 +6410,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="B19" t="n">
         <v>750</v>
@@ -6043,106 +6421,106 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="B20" t="n">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1545</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="B21" t="n">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1550</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="B22" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1840</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="B23" t="n">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1910</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="B24" t="n">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1380</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="B25" t="n">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1402.5</v>
+        <v>1392.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="B26" t="n">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="B27" t="n">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>844.5</v>
+        <v>829.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="B28" t="n">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="B29" t="n">
         <v>760</v>
@@ -6153,51 +6531,51 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B30" t="n">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="B31" t="n">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>696.5</v>
+        <v>686.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="B32" t="n">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="B33" t="n">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="B34" t="n">
         <v>1520</v>
@@ -6208,18 +6586,18 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="B35" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="B36" t="n">
         <v>960</v>
@@ -6230,7 +6608,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="B37" t="n">
         <v>960</v>
@@ -6241,7 +6619,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="B38" t="n">
         <v>800</v>
@@ -6252,7 +6630,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="B39" t="n">
         <v>1095</v>
@@ -6263,7 +6641,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="B40" t="n">
         <v>2150</v>
@@ -6286,7 +6664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6314,13 +6692,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -6331,22 +6709,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3722</v>
+        <v>3712</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>600</v>
+        <v>2260</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1180</v>
@@ -6357,25 +6735,25 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3705</v>
+        <v>3695</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>606</v>
+        <v>2330</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1305</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6383,22 +6761,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>3712</v>
+        <v>3702</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>839</v>
+        <v>2270</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>1645</v>
@@ -6409,25 +6787,25 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3695</v>
+        <v>3685</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>833</v>
+        <v>2430</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6435,25 +6813,25 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4540</v>
+        <v>4530</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>850</v>
+        <v>2150</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1047</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6461,25 +6839,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4512</v>
+        <v>4502</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>930</v>
+        <v>2370</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6487,25 +6865,25 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4425</v>
+        <v>4415</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>933</v>
+        <v>581</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6513,25 +6891,25 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>4495</v>
+        <v>4485</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>823</v>
+        <v>596</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6539,25 +6917,25 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>4655</v>
+        <v>4645</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>827</v>
+        <v>2600</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1089</v>
+        <v>1071</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6565,25 +6943,25 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>4690</v>
+        <v>4680</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>717</v>
+        <v>1248</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6591,22 +6969,22 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>4697</v>
+        <v>4687</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>737</v>
+        <v>1269</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>623</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>640</v>
@@ -6617,25 +6995,25 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>5475</v>
+        <v>5465</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>726</v>
+        <v>1220</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1082</v>
+        <v>1064</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>887</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6643,25 +7021,25 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>5475</v>
+        <v>5465</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>846</v>
+        <v>1234</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6669,25 +7047,25 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>5450</v>
+        <v>5440</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>850</v>
+        <v>1460</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>740</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6695,25 +7073,25 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>4527</v>
+        <v>4517</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>625</v>
+        <v>2735</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6721,25 +7099,25 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>4660</v>
+        <v>4650</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>620</v>
+        <v>3305</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>947</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6747,22 +7125,22 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>5500</v>
+        <v>5490</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>621</v>
+        <v>948</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>940</v>
@@ -6773,22 +7151,22 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>4485</v>
+        <v>4475</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1263</v>
+        <v>2732</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>750</v>
@@ -6799,25 +7177,25 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>4552</v>
+        <v>4542</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1284</v>
+        <v>3295</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>1645</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6825,25 +7203,25 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>4557</v>
+        <v>4547</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1251</v>
+        <v>1383</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>1650</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6851,25 +7229,25 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>5675</v>
+        <v>5665</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1478</v>
+        <v>1226</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6877,25 +7255,25 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>5710</v>
+        <v>5700</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>965</v>
+        <v>1383</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>2060</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6903,25 +7281,25 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>5790</v>
+        <v>5780</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2735</v>
+        <v>3282</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6929,25 +7307,25 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>5432</v>
+        <v>5422</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2740</v>
+        <v>2717</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>1502</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6955,25 +7333,25 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>5450</v>
+        <v>5440</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>3305</v>
+        <v>948</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>881</v>
+        <v>866</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6981,25 +7359,25 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>5432</v>
+        <v>5422</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>3310</v>
+        <v>950</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>2930</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>944</v>
+        <v>929</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7007,25 +7385,25 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>6745</v>
+        <v>6735</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>965</v>
+        <v>3212</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2880</v>
+        <v>2870</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7033,22 +7411,22 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>6770</v>
+        <v>6760</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1238</v>
+        <v>3850</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3790</v>
+        <v>3780</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>760</v>
@@ -7059,25 +7437,25 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>6750</v>
+        <v>6740</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>967</v>
+        <v>3712</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3275</v>
+        <v>3257</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>881</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7085,25 +7463,25 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3735</v>
+        <v>3725</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1400</v>
+        <v>3692</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>3080</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7111,25 +7489,25 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>4625</v>
+        <v>4615</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1400</v>
+        <v>3177</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3780</v>
+        <v>3815</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>764</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7137,25 +7515,25 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2725</v>
+        <v>3165</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7163,22 +7541,22 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>7062</v>
+        <v>7052</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1520</v>
@@ -7189,25 +7567,25 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>7062</v>
+        <v>7052</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>3285</v>
+        <v>1880</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1540</v>
+        <v>1522</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7215,22 +7593,22 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>8145</v>
+        <v>8135</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>3210</v>
+        <v>2192</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>960</v>
@@ -7241,22 +7619,22 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>8190</v>
+        <v>8180</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>3170</v>
+        <v>2185</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1795</v>
+        <v>1780</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>960</v>
@@ -7267,22 +7645,22 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3935</v>
+        <v>3925</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3860</v>
+        <v>2154</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>800</v>
@@ -7293,22 +7671,22 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>7095</v>
+        <v>7085</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>3695</v>
+        <v>2421</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>1095</v>
@@ -7319,22 +7697,22 @@
         <v>41</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>4565</v>
+        <v>4555</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>3685</v>
+        <v>2421</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>2150</v>
@@ -7345,19 +7723,19 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>5737</v>
+        <v>5727</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>3175</v>
+        <v>2516</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>931</v>
+        <v>916</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7365,19 +7743,19 @@
         <v>43</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>5607</v>
+        <v>5597</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1236</v>
+        <v>2486</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>714</v>
+        <v>697</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7385,19 +7763,19 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>6757</v>
+        <v>6747</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1895</v>
+        <v>1813</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>722</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7411,13 +7789,13 @@
         <v>127</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2207</v>
+        <v>1807</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>931</v>
+        <v>916</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7431,10 +7809,10 @@
         <v>128</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2170</v>
+        <v>948</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>1770</v>
@@ -7451,13 +7829,13 @@
         <v>129</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2436</v>
+        <v>1492</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>1787</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7471,10 +7849,10 @@
         <v>130</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2525</v>
+        <v>1227</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>1800</v>
@@ -7491,13 +7869,13 @@
         <v>131</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2435</v>
+        <v>2179</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>1450</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7511,13 +7889,13 @@
         <v>132</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1245</v>
+        <v>934</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2732</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7531,13 +7909,13 @@
         <v>133</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>1507</v>
+        <v>1013</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2700</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7551,13 +7929,13 @@
         <v>134</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>1770</v>
+        <v>1819</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>2693</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7571,13 +7949,13 @@
         <v>135</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1828</v>
+        <v>970</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>2875</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7591,13 +7969,13 @@
         <v>136</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1822</v>
+        <v>1309</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>2845</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7611,10 +7989,10 @@
         <v>137</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2500</v>
+        <v>1336</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>1840</v>
@@ -7631,13 +8009,13 @@
         <v>138</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2193</v>
+        <v>900</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2050</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7651,13 +8029,13 @@
         <v>139</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>2200</v>
+        <v>927</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7671,13 +8049,13 @@
         <v>140</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>966</v>
+        <v>901</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>2837</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7691,13 +8069,13 @@
         <v>141</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1833</v>
+        <v>1370</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>1472</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7711,10 +8089,10 @@
         <v>142</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1030</v>
+        <v>1327</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>3220</v>
@@ -7731,13 +8109,13 @@
         <v>143</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1327</v>
+        <v>1013</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7751,13 +8129,13 @@
         <v>144</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1354</v>
+        <v>1720</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7771,13 +8149,13 @@
         <v>145</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>951</v>
+        <v>2212</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7791,13 +8169,13 @@
         <v>146</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>918</v>
+        <v>2161</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>856</v>
+        <v>838</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7811,13 +8189,13 @@
         <v>147</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>916</v>
+        <v>2080</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>830</v>
+        <v>813</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7831,13 +8209,13 @@
         <v>148</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>988</v>
+        <v>2174</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7851,10 +8229,10 @@
         <v>149</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>945</v>
+        <v>820</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>830</v>
@@ -7871,13 +8249,13 @@
         <v>150</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>1030</v>
+        <v>815</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>636</v>
+        <v>618</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7891,13 +8269,13 @@
         <v>151</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>1344</v>
+        <v>831</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>1174</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7911,13 +8289,13 @@
         <v>152</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1159</v>
+        <v>915</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>1252</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7931,13 +8309,13 @@
         <v>153</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>1735</v>
+        <v>915</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>2872</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7951,13 +8329,13 @@
         <v>154</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>1192</v>
+        <v>915</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>1545</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7971,13 +8349,13 @@
         <v>155</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>2226</v>
+        <v>1673</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>1545</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7991,13 +8369,13 @@
         <v>156</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>2189</v>
+        <v>1671</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>1235</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -8011,13 +8389,13 @@
         <v>157</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>2176</v>
+        <v>1753</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>1780</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8031,13 +8409,13 @@
         <v>158</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>2090</v>
+        <v>1072</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>1655</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8051,13 +8429,13 @@
         <v>159</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1170</v>
+        <v>1073</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>1652</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8071,13 +8449,13 @@
         <v>160</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>2407</v>
+        <v>936</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>3220</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8091,13 +8469,13 @@
         <v>161</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1093</v>
+        <v>960</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8111,13 +8489,13 @@
         <v>162</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1090</v>
+        <v>1765</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>1037</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8131,10 +8509,10 @@
         <v>163</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>1165</v>
@@ -8151,10 +8529,10 @@
         <v>164</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>925</v>
+        <v>1315</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>680</v>
@@ -8171,10 +8549,10 @@
         <v>165</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>960</v>
+        <v>1671</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>1120</v>
@@ -8185,10 +8563,10 @@
         <v>166</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>935</v>
+        <v>1314</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>1050</v>
@@ -8199,10 +8577,10 @@
         <v>167</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>1768</v>
+        <v>804</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>3370</v>
@@ -8213,10 +8591,10 @@
         <v>168</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>1775</v>
+        <v>808</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>4450</v>
@@ -8227,10 +8605,10 @@
         <v>169</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>960</v>
+        <v>1796</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F86" s="2" t="n">
         <v>4670</v>
@@ -8241,10 +8619,10 @@
         <v>170</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1685</v>
+        <v>1314</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>4850</v>
@@ -8255,10 +8633,10 @@
         <v>171</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>1805</v>
+        <v>698</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F88" s="2" t="n">
         <v>5450</v>
@@ -8269,10 +8647,10 @@
         <v>172</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>1330</v>
+        <v>719</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>5000</v>
@@ -8283,10 +8661,10 @@
         <v>173</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>1329</v>
+        <v>707</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>5750</v>
@@ -8297,10 +8675,10 @@
         <v>174</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>1329</v>
+        <v>827</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F91" s="2" t="n">
         <v>6500</v>
@@ -8311,13 +8689,13 @@
         <v>175</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>1686</v>
+        <v>960</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>1027</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8325,10 +8703,10 @@
         <v>176</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>1688</v>
+        <v>3280</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>3350</v>
@@ -8339,10 +8717,10 @@
         <v>177</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>1159</v>
+        <v>3317</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F94" s="2" t="n">
         <v>2640</v>
@@ -8353,10 +8731,10 @@
         <v>178</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>1146</v>
+        <v>3285</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="F95" s="2" t="n">
         <v>812</v>
@@ -8367,10 +8745,10 @@
         <v>179</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>1159</v>
+        <v>3270</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="F96" s="2" t="n">
         <v>832</v>
@@ -8381,10 +8759,10 @@
         <v>180</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>3290</v>
+        <v>3892</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>928</v>
@@ -8395,10 +8773,10 @@
         <v>181</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>3260</v>
+        <v>3780</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>930</v>
@@ -8409,7 +8787,7 @@
         <v>182</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>3290</v>
+        <v>3745</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>28</v>
@@ -8423,7 +8801,7 @@
         <v>183</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>3800</v>
+        <v>4260</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>26</v>
@@ -8437,10 +8815,10 @@
         <v>184</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>3760</v>
+        <v>4317</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F101" s="2" t="n">
         <v>900</v>
@@ -8451,10 +8829,10 @@
         <v>185</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>4835</v>
+        <v>4900</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F102" s="2" t="n">
         <v>898</v>
@@ -8465,10 +8843,10 @@
         <v>186</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>3905</v>
+        <v>4827</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="F103" s="2" t="n">
         <v>695</v>
@@ -8479,10 +8857,10 @@
         <v>187</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>4272</v>
+        <v>4877</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="n">
         <v>947</v>
@@ -8493,10 +8871,10 @@
         <v>188</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>4330</v>
+        <v>3750</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="F105" s="2" t="n">
         <v>832</v>
@@ -8507,10 +8885,10 @@
         <v>189</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>4230</v>
+        <v>4235</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="n">
         <v>950</v>
@@ -8521,10 +8899,10 @@
         <v>190</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>4915</v>
+        <v>4353</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="n">
         <v>947</v>
@@ -8535,10 +8913,10 @@
         <v>191</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>5730</v>
+        <v>4893</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F108" s="2" t="n">
         <v>946</v>
@@ -8549,10 +8927,10 @@
         <v>192</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>3327</v>
+        <v>5725</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="F109" s="2" t="n">
         <v>606</v>
@@ -8563,10 +8941,10 @@
         <v>193</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>3770</v>
+        <v>832</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="F110" s="2" t="n">
         <v>601</v>
@@ -8577,10 +8955,10 @@
         <v>194</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>4362</v>
+        <v>1131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="F111" s="2" t="n">
         <v>601</v>
@@ -8591,10 +8969,10 @@
         <v>195</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>4905</v>
+        <v>1143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F112" s="2" t="n">
         <v>930</v>
@@ -8605,10 +8983,10 @@
         <v>196</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>5850</v>
+        <v>1144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F113" s="2" t="n">
         <v>1145</v>
@@ -8619,13 +8997,13 @@
         <v>197</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>3240</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8633,10 +9011,10 @@
         <v>198</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>4885</v>
+        <v>865</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F115" s="2" t="n">
         <v>830</v>
@@ -8647,13 +9025,13 @@
         <v>199</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>3230</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8661,13 +9039,13 @@
         <v>200</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>875</v>
+        <v>1073</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>1072</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8675,10 +9053,10 @@
         <v>201</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>2595</v>
+        <v>2577</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F118" s="2" t="n">
         <v>1055</v>
@@ -8689,7 +9067,7 @@
         <v>202</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>2561</v>
+        <v>2584</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>210</v>
@@ -8703,10 +9081,10 @@
         <v>203</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>2601</v>
+        <v>2543</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F120" s="2" t="n">
         <v>1485</v>
@@ -8717,10 +9095,10 @@
         <v>204</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>2577</v>
+        <v>2560</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F121" s="2" t="n">
         <v>2300</v>
@@ -8731,10 +9109,10 @@
         <v>205</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>1091</v>
+        <v>2473</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F122" s="2" t="n">
         <v>2300</v>
@@ -8745,7 +9123,7 @@
         <v>206</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>2490</v>
+        <v>2480</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>208</v>
@@ -8759,10 +9137,10 @@
         <v>207</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>2492</v>
+        <v>1476</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F124" s="2" t="n">
         <v>698</v>
@@ -8773,13 +9151,13 @@
         <v>208</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>835</v>
+        <v>890</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8787,13 +9165,13 @@
         <v>209</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>1491</v>
+        <v>2475</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>835</v>
+        <v>980</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8801,13 +9179,13 @@
         <v>210</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>1493</v>
+        <v>1477</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>715</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8815,13 +9193,13 @@
         <v>211</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>1691</v>
+        <v>1760</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>1020</v>
+        <v>900</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8829,13 +9207,13 @@
         <v>212</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>1775</v>
+        <v>3895</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>1025</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8843,7 +9221,13 @@
         <v>213</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>1189</v>
+        <v>1350</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>1220</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8851,7 +9235,13 @@
         <v>214</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>3427</v>
+        <v>3418</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>710</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8859,7 +9249,13 @@
         <v>215</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>3900</v>
+        <v>606</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>835</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8867,7 +9263,13 @@
         <v>216</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>980</v>
+        <v>602</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>3100</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8875,7 +9277,13 @@
         <v>217</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1592</v>
+        <v>1174</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>835</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8883,7 +9291,13 @@
         <v>218</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>1594</v>
+        <v>603</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>1470</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8891,7 +9305,13 @@
         <v>219</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>1463</v>
+        <v>1676</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>715</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8899,7 +9319,13 @@
         <v>220</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>1467</v>
+        <v>1452</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>1075</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8907,7 +9333,13 @@
         <v>221</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>2093</v>
+        <v>1448</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>1480</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -8915,7 +9347,13 @@
         <v>222</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>1860</v>
+        <v>975</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -8923,7 +9361,13 @@
         <v>223</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>2163</v>
+        <v>2078</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>1830</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -8931,7 +9375,13 @@
         <v>224</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1857</v>
+        <v>1575</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>3320</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -8939,7 +9389,13 @@
         <v>225</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>737</v>
+        <v>1576</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>2750</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8947,7 +9403,13 @@
         <v>226</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>740</v>
+        <v>1840</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8955,7 +9417,13 @@
         <v>227</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>741</v>
+        <v>1842</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>1020</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -8963,7 +9431,13 @@
         <v>228</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>1640</v>
+        <v>2098</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>1170</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -8971,7 +9445,13 @@
         <v>229</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>2168</v>
+        <v>1465</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>1540</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8979,7 +9459,13 @@
         <v>230</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>1855</v>
+        <v>1839</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>1025</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8987,7 +9473,13 @@
         <v>231</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>1665</v>
+        <v>1448</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>2750</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8995,7 +9487,13 @@
         <v>232</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>1460</v>
+        <v>2152</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>1450</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9003,7 +9501,7 @@
         <v>233</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>2892</v>
+        <v>730</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9011,7 +9509,7 @@
         <v>234</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>2915</v>
+        <v>728</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9019,7 +9517,7 @@
         <v>235</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>3027</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9027,7 +9525,7 @@
         <v>236</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>1480</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9035,7 +9533,7 @@
         <v>237</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>3015</v>
+        <v>731</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9043,7 +9541,7 @@
         <v>238</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>850</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9051,7 +9549,7 @@
         <v>239</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>3120</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9059,7 +9557,7 @@
         <v>240</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9067,7 +9565,7 @@
         <v>241</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>3350</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9075,7 +9573,7 @@
         <v>242</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>3350</v>
+        <v>875</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9091,7 +9589,7 @@
         <v>244</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>2485</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9099,7 +9597,7 @@
         <v>245</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>1254</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9107,7 +9605,7 @@
         <v>246</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>2465</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9115,7 +9613,7 @@
         <v>247</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>2270</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9123,21 +9621,23 @@
         <v>248</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>2270</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="C166" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D166" s="2" t="n"/>
+      <c r="D166" s="2" t="n">
+        <v>1170</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
       <c r="C167" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>1210</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9145,7 +9645,7 @@
         <v>251</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>1195</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9153,6 +9653,60 @@
         <v>252</v>
       </c>
       <c r="D169" s="2" t="n">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="C170" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="C171" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="C172" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="C173" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D173" s="2" t="n"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="C174" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="C175" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="C176" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D176" s="2" t="n">
         <v>1200</v>
       </c>
     </row>

--- a/project/yilaitong/报价.xlsx
+++ b/project/yilaitong/报价.xlsx
@@ -1677,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3712</v>
+        <v>3714</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3612.5</v>
+        <v>3614.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1688,10 +1688,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3695</v>
+        <v>3697</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3595</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1699,10 +1699,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3702</v>
+        <v>3704</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3602.5</v>
+        <v>3604.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1710,10 +1710,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>3685</v>
+        <v>3687</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3585</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1721,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>4530</v>
+        <v>4532</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4380</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1732,10 +1732,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>4502</v>
+        <v>4504</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4352.5</v>
+        <v>4354.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1743,10 +1743,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>4415</v>
+        <v>4417</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4265</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1754,10 +1754,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>4485</v>
+        <v>4487</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4335</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1765,10 +1765,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>4645</v>
+        <v>4647</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4495</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1776,10 +1776,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>4680</v>
+        <v>4682</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4530</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1787,10 +1787,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>4687</v>
+        <v>4689</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>4537.5</v>
+        <v>4539.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1798,10 +1798,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>5465</v>
+        <v>5467</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5315</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1809,10 +1809,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>5465</v>
+        <v>5467</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5315</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1820,10 +1820,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>5440</v>
+        <v>5442</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5290</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1831,10 +1831,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>4517</v>
+        <v>4519</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4367.5</v>
+        <v>4369.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1842,10 +1842,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>4650</v>
+        <v>4652</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4500</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1853,10 +1853,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>5490</v>
+        <v>5492</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>5340</v>
+        <v>5342</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1864,10 +1864,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>4475</v>
+        <v>4477</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4325</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1875,10 +1875,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>4542</v>
+        <v>4544</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4392.5</v>
+        <v>4394.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1886,10 +1886,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>4547</v>
+        <v>4549</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>4397.5</v>
+        <v>4399.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1897,10 +1897,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>5665</v>
+        <v>5667</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>5515</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1908,10 +1908,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>5700</v>
+        <v>5702</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>5550</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1919,10 +1919,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>5780</v>
+        <v>5782</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>5630</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1930,10 +1930,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>5422</v>
+        <v>5424</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>5272.5</v>
+        <v>5274.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1941,10 +1941,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>5440</v>
+        <v>5442</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>5290</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1952,10 +1952,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>5422</v>
+        <v>5424</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5272.5</v>
+        <v>5274.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1963,10 +1963,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>6735</v>
+        <v>6737</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6585</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1974,10 +1974,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>6760</v>
+        <v>6762</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6610</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1985,10 +1985,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>6740</v>
+        <v>6742</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6590</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1996,10 +1996,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>3725</v>
+        <v>3727</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>3625</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2007,10 +2007,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>4615</v>
+        <v>4617</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>4465</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2018,10 +2018,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>5380</v>
+        <v>5382</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5230</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2029,10 +2029,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>7052</v>
+        <v>7054</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>6902.5</v>
+        <v>6904.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2040,10 +2040,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>7052</v>
+        <v>7054</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>6902.5</v>
+        <v>6904.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2051,10 +2051,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>8135</v>
+        <v>8137</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>7985</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2062,10 +2062,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>8180</v>
+        <v>8182</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>8030</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2073,10 +2073,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>3925</v>
+        <v>3927</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3825</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2084,10 +2084,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>7085</v>
+        <v>7087</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6935</v>
+        <v>6937</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2095,10 +2095,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>4555</v>
+        <v>4557</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>4405</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2106,10 +2106,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>5727</v>
+        <v>5729</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5577.5</v>
+        <v>5579.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2117,10 +2117,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>5597</v>
+        <v>5599</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>5447.5</v>
+        <v>5449.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2128,10 +2128,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>6747</v>
+        <v>6749</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>6597.5</v>
+        <v>6599.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2604,10 +2604,10 @@
         <v>85</v>
       </c>
       <c r="B2" t="n">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2110</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2626,10 +2626,10 @@
         <v>87</v>
       </c>
       <c r="B4" t="n">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2120</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2670,10 +2670,10 @@
         <v>91</v>
       </c>
       <c r="B8" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>481.5</v>
+        <v>485.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2681,10 +2681,10 @@
         <v>92</v>
       </c>
       <c r="B9" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2703,10 +2703,10 @@
         <v>94</v>
       </c>
       <c r="B11" t="n">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1148</v>
+        <v>1151.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2714,10 +2714,10 @@
         <v>95</v>
       </c>
       <c r="B12" t="n">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1169.5</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2725,10 +2725,10 @@
         <v>96</v>
       </c>
       <c r="B13" t="n">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1120.5</v>
+        <v>1124.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2736,10 +2736,10 @@
         <v>97</v>
       </c>
       <c r="B14" t="n">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1134</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2747,10 +2747,10 @@
         <v>98</v>
       </c>
       <c r="B15" t="n">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1360.5</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2758,10 +2758,10 @@
         <v>99</v>
       </c>
       <c r="B16" t="n">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2585</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2769,10 +2769,10 @@
         <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3155</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2780,10 +2780,10 @@
         <v>101</v>
       </c>
       <c r="B18" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>848</v>
+        <v>851.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2791,10 +2791,10 @@
         <v>102</v>
       </c>
       <c r="B19" t="n">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2582.5</v>
+        <v>2584.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2802,10 +2802,10 @@
         <v>103</v>
       </c>
       <c r="B20" t="n">
-        <v>3295</v>
+        <v>3298</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3145</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2813,10 +2813,10 @@
         <v>104</v>
       </c>
       <c r="B21" t="n">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1283</v>
+        <v>1286.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2824,10 +2824,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1126</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2835,10 +2835,10 @@
         <v>106</v>
       </c>
       <c r="B23" t="n">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1283</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2846,10 +2846,10 @@
         <v>107</v>
       </c>
       <c r="B24" t="n">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>3132.5</v>
+        <v>3134.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2857,10 +2857,10 @@
         <v>108</v>
       </c>
       <c r="B25" t="n">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2567.5</v>
+        <v>2569.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2868,10 +2868,10 @@
         <v>109</v>
       </c>
       <c r="B26" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>848</v>
+        <v>851.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2879,10 +2879,10 @@
         <v>110</v>
       </c>
       <c r="B27" t="n">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>850</v>
+        <v>853.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2890,10 +2890,10 @@
         <v>111</v>
       </c>
       <c r="B28" t="n">
-        <v>3212</v>
+        <v>3214</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>3062.5</v>
+        <v>3064.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2901,10 +2901,10 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>3850</v>
+        <v>3853</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>3700</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2912,10 +2912,10 @@
         <v>113</v>
       </c>
       <c r="B30" t="n">
-        <v>3712</v>
+        <v>3714</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>3562.5</v>
+        <v>3564.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2923,10 +2923,10 @@
         <v>114</v>
       </c>
       <c r="B31" t="n">
-        <v>3692</v>
+        <v>3694</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>3542.5</v>
+        <v>3544.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2934,10 +2934,10 @@
         <v>115</v>
       </c>
       <c r="B32" t="n">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>3027.5</v>
+        <v>3029.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2945,10 +2945,10 @@
         <v>116</v>
       </c>
       <c r="B33" t="n">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>3015</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2956,10 +2956,10 @@
         <v>117</v>
       </c>
       <c r="B34" t="n">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1122</v>
+        <v>1125.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2967,10 +2967,10 @@
         <v>118</v>
       </c>
       <c r="B35" t="n">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1780</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2978,10 +2978,10 @@
         <v>119</v>
       </c>
       <c r="B36" t="n">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2042.5</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2989,10 +2989,10 @@
         <v>120</v>
       </c>
       <c r="B37" t="n">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2035</v>
+        <v>2038.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3000,10 +3000,10 @@
         <v>121</v>
       </c>
       <c r="B38" t="n">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2004</v>
+        <v>2007.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3011,10 +3011,10 @@
         <v>122</v>
       </c>
       <c r="B39" t="n">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2271</v>
+        <v>2274.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3022,10 +3022,10 @@
         <v>123</v>
       </c>
       <c r="B40" t="n">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2271</v>
+        <v>2274.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3033,10 +3033,10 @@
         <v>124</v>
       </c>
       <c r="B41" t="n">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>2366</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3044,10 +3044,10 @@
         <v>125</v>
       </c>
       <c r="B42" t="n">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2336</v>
+        <v>2339.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3055,10 +3055,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="n">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1713.5</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3066,10 +3066,10 @@
         <v>127</v>
       </c>
       <c r="B44" t="n">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>1707.5</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3077,10 +3077,10 @@
         <v>128</v>
       </c>
       <c r="B45" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>848.5</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3088,10 +3088,10 @@
         <v>129</v>
       </c>
       <c r="B46" t="n">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1392.5</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3099,10 +3099,10 @@
         <v>130</v>
       </c>
       <c r="B47" t="n">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1127.5</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3110,10 +3110,10 @@
         <v>131</v>
       </c>
       <c r="B48" t="n">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2029</v>
+        <v>2032.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3121,10 +3121,10 @@
         <v>132</v>
       </c>
       <c r="B49" t="n">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>834</v>
+        <v>837.5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3132,10 +3132,10 @@
         <v>133</v>
       </c>
       <c r="B50" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>913</v>
+        <v>916.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3143,10 +3143,10 @@
         <v>134</v>
       </c>
       <c r="B51" t="n">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>1719</v>
+        <v>1722.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3154,10 +3154,10 @@
         <v>135</v>
       </c>
       <c r="B52" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>870.5</v>
+        <v>874.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3165,10 +3165,10 @@
         <v>136</v>
       </c>
       <c r="B53" t="n">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1209.5</v>
+        <v>1213.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3176,10 +3176,10 @@
         <v>137</v>
       </c>
       <c r="B54" t="n">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>1236.5</v>
+        <v>1240.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3187,10 +3187,10 @@
         <v>138</v>
       </c>
       <c r="B55" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>800.5</v>
+        <v>804</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3198,10 +3198,10 @@
         <v>139</v>
       </c>
       <c r="B56" t="n">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>827.5</v>
+        <v>831</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3209,10 +3209,10 @@
         <v>140</v>
       </c>
       <c r="B57" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>801.5</v>
+        <v>805</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3231,10 +3231,10 @@
         <v>142</v>
       </c>
       <c r="B59" t="n">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1227</v>
+        <v>1230.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3242,10 +3242,10 @@
         <v>143</v>
       </c>
       <c r="B60" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>913</v>
+        <v>916.5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3253,10 +3253,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="n">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1620</v>
+        <v>1623.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3264,10 +3264,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="n">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2062.5</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3275,10 +3275,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="n">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>2011.5</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3286,10 +3286,10 @@
         <v>147</v>
       </c>
       <c r="B64" t="n">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1980</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3297,10 +3297,10 @@
         <v>148</v>
       </c>
       <c r="B65" t="n">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>2024.5</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3308,10 +3308,10 @@
         <v>149</v>
       </c>
       <c r="B66" t="n">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>720.5</v>
+        <v>724</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3319,10 +3319,10 @@
         <v>150</v>
       </c>
       <c r="B67" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>715</v>
+        <v>718.5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3330,10 +3330,10 @@
         <v>151</v>
       </c>
       <c r="B68" t="n">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>731.5</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3341,10 +3341,10 @@
         <v>152</v>
       </c>
       <c r="B69" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3352,10 +3352,10 @@
         <v>153</v>
       </c>
       <c r="B70" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3363,10 +3363,10 @@
         <v>154</v>
       </c>
       <c r="B71" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3374,10 +3374,10 @@
         <v>155</v>
       </c>
       <c r="B72" t="n">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>1573.5</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3385,10 +3385,10 @@
         <v>156</v>
       </c>
       <c r="B73" t="n">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1571</v>
+        <v>1574.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3396,10 +3396,10 @@
         <v>157</v>
       </c>
       <c r="B74" t="n">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1653</v>
+        <v>1656.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3407,10 +3407,10 @@
         <v>158</v>
       </c>
       <c r="B75" t="n">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>972.5</v>
+        <v>976.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3418,10 +3418,10 @@
         <v>159</v>
       </c>
       <c r="B76" t="n">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3429,10 +3429,10 @@
         <v>160</v>
       </c>
       <c r="B77" t="n">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3440,10 +3440,10 @@
         <v>161</v>
       </c>
       <c r="B78" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3451,10 +3451,10 @@
         <v>162</v>
       </c>
       <c r="B79" t="n">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1665.5</v>
+        <v>1668.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3462,10 +3462,10 @@
         <v>163</v>
       </c>
       <c r="B80" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>976</v>
+        <v>979.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3473,10 +3473,10 @@
         <v>164</v>
       </c>
       <c r="B81" t="n">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1215</v>
+        <v>1218.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3484,10 +3484,10 @@
         <v>165</v>
       </c>
       <c r="B82" t="n">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>1571.5</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3495,10 +3495,10 @@
         <v>166</v>
       </c>
       <c r="B83" t="n">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1214.5</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3506,10 +3506,10 @@
         <v>167</v>
       </c>
       <c r="B84" t="n">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3517,10 +3517,10 @@
         <v>168</v>
       </c>
       <c r="B85" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>708.5</v>
+        <v>712.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3528,10 +3528,10 @@
         <v>169</v>
       </c>
       <c r="B86" t="n">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>1696</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3539,10 +3539,10 @@
         <v>170</v>
       </c>
       <c r="B87" t="n">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1214.5</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3550,10 +3550,10 @@
         <v>171</v>
       </c>
       <c r="B88" t="n">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>598.5</v>
+        <v>602.5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>172</v>
       </c>
       <c r="B89" t="n">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>619</v>
+        <v>622.5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3572,10 +3572,10 @@
         <v>173</v>
       </c>
       <c r="B90" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>607.5</v>
+        <v>611</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3583,10 +3583,10 @@
         <v>174</v>
       </c>
       <c r="B91" t="n">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>727.5</v>
+        <v>731</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3594,10 +3594,10 @@
         <v>175</v>
       </c>
       <c r="B92" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3605,10 +3605,10 @@
         <v>176</v>
       </c>
       <c r="B93" t="n">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>3130</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3616,10 +3616,10 @@
         <v>177</v>
       </c>
       <c r="B94" t="n">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>3167.5</v>
+        <v>3170.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3627,10 +3627,10 @@
         <v>178</v>
       </c>
       <c r="B95" t="n">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>3135</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3638,10 +3638,10 @@
         <v>179</v>
       </c>
       <c r="B96" t="n">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>3120</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3649,10 +3649,10 @@
         <v>180</v>
       </c>
       <c r="B97" t="n">
-        <v>3892</v>
+        <v>3895</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>3742.5</v>
+        <v>3745.5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3660,10 +3660,10 @@
         <v>181</v>
       </c>
       <c r="B98" t="n">
-        <v>3780</v>
+        <v>3782</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>3630</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3671,10 +3671,10 @@
         <v>182</v>
       </c>
       <c r="B99" t="n">
-        <v>3745</v>
+        <v>3748</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>3595</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3682,10 +3682,10 @@
         <v>183</v>
       </c>
       <c r="B100" t="n">
-        <v>4260</v>
+        <v>4263</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>4110</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3693,10 +3693,10 @@
         <v>184</v>
       </c>
       <c r="B101" t="n">
-        <v>4317</v>
+        <v>4320</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>4167.5</v>
+        <v>4170.5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3704,10 +3704,10 @@
         <v>185</v>
       </c>
       <c r="B102" t="n">
-        <v>4900</v>
+        <v>4903</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>4750</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3715,10 +3715,10 @@
         <v>186</v>
       </c>
       <c r="B103" t="n">
-        <v>4827</v>
+        <v>4830</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>4677.5</v>
+        <v>4680.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3726,10 +3726,10 @@
         <v>187</v>
       </c>
       <c r="B104" t="n">
-        <v>4877</v>
+        <v>4879</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>4727.5</v>
+        <v>4729.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3737,10 +3737,10 @@
         <v>188</v>
       </c>
       <c r="B105" t="n">
-        <v>3750</v>
+        <v>3752</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>3600</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3748,10 +3748,10 @@
         <v>189</v>
       </c>
       <c r="B106" t="n">
-        <v>4235</v>
+        <v>4237</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>4085</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3759,10 +3759,10 @@
         <v>190</v>
       </c>
       <c r="B107" t="n">
-        <v>4353</v>
+        <v>4356</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>4203.5</v>
+        <v>4206.5</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3770,10 +3770,10 @@
         <v>191</v>
       </c>
       <c r="B108" t="n">
-        <v>4893</v>
+        <v>4896</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>4743.5</v>
+        <v>4746.5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3781,10 +3781,10 @@
         <v>192</v>
       </c>
       <c r="B109" t="n">
-        <v>5725</v>
+        <v>5727</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>5575</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3792,10 +3792,10 @@
         <v>193</v>
       </c>
       <c r="B110" t="n">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>732</v>
+        <v>735.5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3803,10 +3803,10 @@
         <v>194</v>
       </c>
       <c r="B111" t="n">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>1031.5</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3814,10 +3814,10 @@
         <v>195</v>
       </c>
       <c r="B112" t="n">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>1043.5</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3825,10 +3825,10 @@
         <v>196</v>
       </c>
       <c r="B113" t="n">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>1044</v>
+        <v>1047.5</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3836,10 +3836,10 @@
         <v>197</v>
       </c>
       <c r="B114" t="n">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>763.5</v>
+        <v>766.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3847,10 +3847,10 @@
         <v>198</v>
       </c>
       <c r="B115" t="n">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3858,10 +3858,10 @@
         <v>199</v>
       </c>
       <c r="B116" t="n">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>764.5</v>
+        <v>767.5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>200</v>
       </c>
       <c r="B117" t="n">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>973.5</v>
+        <v>977</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3880,10 +3880,10 @@
         <v>201</v>
       </c>
       <c r="B118" t="n">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>2427.5</v>
+        <v>2431.5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3891,10 +3891,10 @@
         <v>202</v>
       </c>
       <c r="B119" t="n">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>2434</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3902,10 +3902,10 @@
         <v>203</v>
       </c>
       <c r="B120" t="n">
-        <v>2543</v>
+        <v>2547</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>2393.5</v>
+        <v>2397.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3913,10 +3913,10 @@
         <v>204</v>
       </c>
       <c r="B121" t="n">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>2410</v>
+        <v>2413.5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3924,10 +3924,10 @@
         <v>205</v>
       </c>
       <c r="B122" t="n">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>2323.5</v>
+        <v>2326.5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3935,10 +3935,10 @@
         <v>206</v>
       </c>
       <c r="B123" t="n">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>2330</v>
+        <v>2333.5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3946,10 +3946,10 @@
         <v>207</v>
       </c>
       <c r="B124" t="n">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>1376</v>
+        <v>1379.5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3957,10 +3957,10 @@
         <v>208</v>
       </c>
       <c r="B125" t="n">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>1376</v>
+        <v>1379.5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3968,10 +3968,10 @@
         <v>209</v>
       </c>
       <c r="B126" t="n">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>2325.5</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3979,10 +3979,10 @@
         <v>210</v>
       </c>
       <c r="B127" t="n">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>1377</v>
+        <v>1380.5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3990,10 +3990,10 @@
         <v>211</v>
       </c>
       <c r="B128" t="n">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>1660.5</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4001,10 +4001,10 @@
         <v>212</v>
       </c>
       <c r="B129" t="n">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>3745</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>214</v>
       </c>
       <c r="B131" t="n">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>3268.5</v>
+        <v>3271.5</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4034,10 +4034,10 @@
         <v>215</v>
       </c>
       <c r="B132" t="n">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>506.5</v>
+        <v>510.5</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4045,10 +4045,10 @@
         <v>216</v>
       </c>
       <c r="B133" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>502</v>
+        <v>505.5</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4056,10 +4056,10 @@
         <v>217</v>
       </c>
       <c r="B134" t="n">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1074</v>
+        <v>1077.5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4067,10 +4067,10 @@
         <v>218</v>
       </c>
       <c r="B135" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>503</v>
+        <v>506.5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4078,10 +4078,10 @@
         <v>219</v>
       </c>
       <c r="B136" t="n">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>1576</v>
+        <v>1579.5</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4089,10 +4089,10 @@
         <v>220</v>
       </c>
       <c r="B137" t="n">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>1352</v>
+        <v>1355.5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4100,10 +4100,10 @@
         <v>221</v>
       </c>
       <c r="B138" t="n">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>1348</v>
+        <v>1351.5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4111,10 +4111,10 @@
         <v>222</v>
       </c>
       <c r="B139" t="n">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4122,10 +4122,10 @@
         <v>223</v>
       </c>
       <c r="B140" t="n">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>1978.5</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4133,10 +4133,10 @@
         <v>224</v>
       </c>
       <c r="B141" t="n">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1475.5</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4144,10 +4144,10 @@
         <v>225</v>
       </c>
       <c r="B142" t="n">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>1476.5</v>
+        <v>1480.5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4155,10 +4155,10 @@
         <v>226</v>
       </c>
       <c r="B143" t="n">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>1740</v>
+        <v>1743.5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4166,10 +4166,10 @@
         <v>227</v>
       </c>
       <c r="B144" t="n">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>1742</v>
+        <v>1745.5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>228</v>
       </c>
       <c r="B145" t="n">
-        <v>2098</v>
+        <v>2151</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>1998</v>
+        <v>2001.5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4188,10 +4188,10 @@
         <v>229</v>
       </c>
       <c r="B146" t="n">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>1365</v>
+        <v>1368.5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4199,10 +4199,10 @@
         <v>230</v>
       </c>
       <c r="B147" t="n">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>1739</v>
+        <v>1742.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4210,10 +4210,10 @@
         <v>231</v>
       </c>
       <c r="B148" t="n">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>1348</v>
+        <v>1351.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4221,10 +4221,10 @@
         <v>232</v>
       </c>
       <c r="B149" t="n">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>2002.5</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4232,10 +4232,10 @@
         <v>233</v>
       </c>
       <c r="B150" t="n">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>630.5</v>
+        <v>633.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4243,10 +4243,10 @@
         <v>234</v>
       </c>
       <c r="B151" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4254,10 +4254,10 @@
         <v>235</v>
       </c>
       <c r="B152" t="n">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>1523.5</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4265,10 +4265,10 @@
         <v>236</v>
       </c>
       <c r="B153" t="n">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>1562.5</v>
+        <v>1564.5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4276,10 +4276,10 @@
         <v>237</v>
       </c>
       <c r="B154" t="n">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>631.5</v>
+        <v>634.5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4287,10 +4287,10 @@
         <v>238</v>
       </c>
       <c r="B155" t="n">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>2735</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>239</v>
       </c>
       <c r="B156" t="n">
-        <v>3012</v>
+        <v>3016</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>2862.5</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4309,10 +4309,10 @@
         <v>240</v>
       </c>
       <c r="B157" t="n">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>2850</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4320,10 +4320,10 @@
         <v>241</v>
       </c>
       <c r="B158" t="n">
-        <v>2902</v>
+        <v>2905</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>2752.5</v>
+        <v>2755.5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>242</v>
       </c>
       <c r="B159" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4342,10 +4342,10 @@
         <v>243</v>
       </c>
       <c r="B160" t="n">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>2760</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4353,10 +4353,10 @@
         <v>244</v>
       </c>
       <c r="B161" t="n">
-        <v>3107</v>
+        <v>3110</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>2957.5</v>
+        <v>2960.5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4364,10 +4364,10 @@
         <v>245</v>
       </c>
       <c r="B162" t="n">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>3035</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4375,10 +4375,10 @@
         <v>246</v>
       </c>
       <c r="B163" t="n">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>1660</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4386,10 +4386,10 @@
         <v>247</v>
       </c>
       <c r="B164" t="n">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>1044.5</v>
+        <v>1047.5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4397,10 +4397,10 @@
         <v>248</v>
       </c>
       <c r="B165" t="n">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>1077.5</v>
+        <v>1080.5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4419,10 +4419,10 @@
         <v>250</v>
       </c>
       <c r="B167" t="n">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>2247.5</v>
+        <v>2249.5</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4463,10 +4463,10 @@
         <v>254</v>
       </c>
       <c r="B171" t="n">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4562,10 +4562,10 @@
         <v>261</v>
       </c>
       <c r="B2" t="n">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4573,10 +4573,10 @@
         <v>262</v>
       </c>
       <c r="B3" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4584,10 +4584,10 @@
         <v>263</v>
       </c>
       <c r="B4" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4595,10 +4595,10 @@
         <v>264</v>
       </c>
       <c r="B5" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4606,10 +4606,10 @@
         <v>265</v>
       </c>
       <c r="B6" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4617,10 +4617,10 @@
         <v>266</v>
       </c>
       <c r="B7" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4628,10 +4628,10 @@
         <v>267</v>
       </c>
       <c r="B8" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>268</v>
       </c>
       <c r="B9" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>801.5</v>
+        <v>803.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4650,10 +4650,10 @@
         <v>269</v>
       </c>
       <c r="B10" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4661,10 +4661,10 @@
         <v>270</v>
       </c>
       <c r="B11" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4683,10 +4683,10 @@
         <v>272</v>
       </c>
       <c r="B13" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4694,10 +4694,10 @@
         <v>273</v>
       </c>
       <c r="B14" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4716,10 +4716,10 @@
         <v>275</v>
       </c>
       <c r="B16" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4727,10 +4727,10 @@
         <v>276</v>
       </c>
       <c r="B17" t="n">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1083</v>
+        <v>1086.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4738,10 +4738,10 @@
         <v>277</v>
       </c>
       <c r="B18" t="n">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1101</v>
+        <v>1104.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4749,10 +4749,10 @@
         <v>278</v>
       </c>
       <c r="B19" t="n">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1089</v>
+        <v>1092.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>279</v>
       </c>
       <c r="B20" t="n">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1333.5</v>
+        <v>1336.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4771,10 +4771,10 @@
         <v>280</v>
       </c>
       <c r="B21" t="n">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1332.5</v>
+        <v>1335.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4782,10 +4782,10 @@
         <v>281</v>
       </c>
       <c r="B22" t="n">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1371</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>282</v>
       </c>
       <c r="B23" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>912.5</v>
+        <v>915.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4804,10 +4804,10 @@
         <v>283</v>
       </c>
       <c r="B24" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4815,10 +4815,10 @@
         <v>284</v>
       </c>
       <c r="B25" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>911.5</v>
+        <v>913.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4826,10 +4826,10 @@
         <v>285</v>
       </c>
       <c r="B26" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>911.5</v>
+        <v>913.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4848,10 +4848,10 @@
         <v>287</v>
       </c>
       <c r="B28" t="n">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2720</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4859,10 +4859,10 @@
         <v>288</v>
       </c>
       <c r="B29" t="n">
-        <v>3780</v>
+        <v>3782</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>3630</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4870,10 +4870,10 @@
         <v>289</v>
       </c>
       <c r="B30" t="n">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>3107.5</v>
+        <v>3110.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4881,10 +4881,10 @@
         <v>290</v>
       </c>
       <c r="B31" t="n">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2930</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4892,10 +4892,10 @@
         <v>291</v>
       </c>
       <c r="B32" t="n">
-        <v>3815</v>
+        <v>3817</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>3665</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4903,10 +4903,10 @@
         <v>292</v>
       </c>
       <c r="B33" t="n">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1343.5</v>
+        <v>1346.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>293</v>
       </c>
       <c r="B34" t="n">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1418</v>
+        <v>1421.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4925,10 +4925,10 @@
         <v>294</v>
       </c>
       <c r="B35" t="n">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1422.5</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4936,10 +4936,10 @@
         <v>295</v>
       </c>
       <c r="B36" t="n">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1397.5</v>
+        <v>1399.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>296</v>
       </c>
       <c r="B37" t="n">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1680</v>
+        <v>1683.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4958,10 +4958,10 @@
         <v>297</v>
       </c>
       <c r="B38" t="n">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1437.5</v>
+        <v>1440.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4969,10 +4969,10 @@
         <v>298</v>
       </c>
       <c r="B39" t="n">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1095.5</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4980,10 +4980,10 @@
         <v>299</v>
       </c>
       <c r="B40" t="n">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1670</v>
+        <v>1673.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4991,10 +4991,10 @@
         <v>300</v>
       </c>
       <c r="B41" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5002,10 +5002,10 @@
         <v>301</v>
       </c>
       <c r="B42" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>597</v>
+        <v>600.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5013,10 +5013,10 @@
         <v>302</v>
       </c>
       <c r="B43" t="n">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>604.5</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5024,10 +5024,10 @@
         <v>303</v>
       </c>
       <c r="B44" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5046,10 +5046,10 @@
         <v>305</v>
       </c>
       <c r="B46" t="n">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1678.5</v>
+        <v>1681.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5068,10 +5068,10 @@
         <v>307</v>
       </c>
       <c r="B48" t="n">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1340</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5079,10 +5079,10 @@
         <v>308</v>
       </c>
       <c r="B49" t="n">
-        <v>2721</v>
+        <v>2724</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2571</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5090,10 +5090,10 @@
         <v>309</v>
       </c>
       <c r="B50" t="n">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2545</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>310</v>
       </c>
       <c r="B51" t="n">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2534</v>
+        <v>2537.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5112,10 +5112,10 @@
         <v>311</v>
       </c>
       <c r="B52" t="n">
-        <v>2860</v>
+        <v>2863</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2710</v>
+        <v>2713.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5123,10 +5123,10 @@
         <v>312</v>
       </c>
       <c r="B53" t="n">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2680</v>
+        <v>2683.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5134,10 +5134,10 @@
         <v>313</v>
       </c>
       <c r="B54" t="n">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>1740</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5145,10 +5145,10 @@
         <v>314</v>
       </c>
       <c r="B55" t="n">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1960</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5156,10 +5156,10 @@
         <v>315</v>
       </c>
       <c r="B56" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1892.5</v>
+        <v>1894.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5167,10 +5167,10 @@
         <v>316</v>
       </c>
       <c r="B57" t="n">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2676</v>
+        <v>2679.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5178,10 +5178,10 @@
         <v>317</v>
       </c>
       <c r="B58" t="n">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1362.5</v>
+        <v>1364.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5200,10 +5200,10 @@
         <v>319</v>
       </c>
       <c r="B60" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>519</v>
+        <v>522.5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5211,10 +5211,10 @@
         <v>320</v>
       </c>
       <c r="B61" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>519</v>
+        <v>522.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5222,10 +5222,10 @@
         <v>321</v>
       </c>
       <c r="B62" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>519</v>
+        <v>522.5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5233,10 +5233,10 @@
         <v>322</v>
       </c>
       <c r="B63" t="n">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>738.5</v>
+        <v>742</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5244,10 +5244,10 @@
         <v>323</v>
       </c>
       <c r="B64" t="n">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>713</v>
+        <v>716.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5255,10 +5255,10 @@
         <v>324</v>
       </c>
       <c r="B65" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5277,10 +5277,10 @@
         <v>326</v>
       </c>
       <c r="B67" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>518.5</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5288,10 +5288,10 @@
         <v>327</v>
       </c>
       <c r="B68" t="n">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>1056.5</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5299,10 +5299,10 @@
         <v>328</v>
       </c>
       <c r="B69" t="n">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1141</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5310,10 +5310,10 @@
         <v>329</v>
       </c>
       <c r="B70" t="n">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>2711</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5321,10 +5321,10 @@
         <v>330</v>
       </c>
       <c r="B71" t="n">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>1432.5</v>
+        <v>1435.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5332,10 +5332,10 @@
         <v>331</v>
       </c>
       <c r="B72" t="n">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>1437.5</v>
+        <v>1440.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5343,10 +5343,10 @@
         <v>332</v>
       </c>
       <c r="B73" t="n">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5354,10 +5354,10 @@
         <v>333</v>
       </c>
       <c r="B74" t="n">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1690</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5365,10 +5365,10 @@
         <v>334</v>
       </c>
       <c r="B75" t="n">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1540</v>
+        <v>1543.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5376,10 +5376,10 @@
         <v>335</v>
       </c>
       <c r="B76" t="n">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1541</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5387,10 +5387,10 @@
         <v>336</v>
       </c>
       <c r="B77" t="n">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>3075</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5398,10 +5398,10 @@
         <v>337</v>
       </c>
       <c r="B78" t="n">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>817.5</v>
+        <v>819.5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5409,10 +5409,10 @@
         <v>338</v>
       </c>
       <c r="B79" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>927.5</v>
+        <v>929.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5420,10 +5420,10 @@
         <v>339</v>
       </c>
       <c r="B80" t="n">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5453,10 +5453,10 @@
         <v>342</v>
       </c>
       <c r="B83" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5552,10 +5552,10 @@
         <v>351</v>
       </c>
       <c r="B92" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>917.5</v>
+        <v>919.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5794,10 +5794,10 @@
         <v>355</v>
       </c>
       <c r="B114" t="n">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>3085</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5816,10 +5816,10 @@
         <v>357</v>
       </c>
       <c r="B116" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>3070</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5827,10 +5827,10 @@
         <v>358</v>
       </c>
       <c r="B117" t="n">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>962.5</v>
+        <v>964.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6237,10 +6237,10 @@
         <v>390</v>
       </c>
       <c r="B3" t="n">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6259,10 +6259,10 @@
         <v>392</v>
       </c>
       <c r="B5" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6270,10 +6270,10 @@
         <v>393</v>
       </c>
       <c r="B6" t="n">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>932.5</v>
+        <v>935.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6281,10 +6281,10 @@
         <v>362</v>
       </c>
       <c r="B7" t="n">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6292,10 +6292,10 @@
         <v>394</v>
       </c>
       <c r="B8" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6303,10 +6303,10 @@
         <v>395</v>
       </c>
       <c r="B9" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>396</v>
       </c>
       <c r="B10" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6325,10 +6325,10 @@
         <v>397</v>
       </c>
       <c r="B11" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>537.5</v>
+        <v>539.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6347,10 +6347,10 @@
         <v>399</v>
       </c>
       <c r="B13" t="n">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>772.5</v>
+        <v>775.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6358,10 +6358,10 @@
         <v>400</v>
       </c>
       <c r="B14" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6369,10 +6369,10 @@
         <v>401</v>
       </c>
       <c r="B15" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6380,10 +6380,10 @@
         <v>402</v>
       </c>
       <c r="B16" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6391,10 +6391,10 @@
         <v>403</v>
       </c>
       <c r="B17" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6424,10 +6424,10 @@
         <v>406</v>
       </c>
       <c r="B20" t="n">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6435,10 +6435,10 @@
         <v>407</v>
       </c>
       <c r="B21" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6446,10 +6446,10 @@
         <v>408</v>
       </c>
       <c r="B22" t="n">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1830</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6457,10 +6457,10 @@
         <v>409</v>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1900</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>410</v>
       </c>
       <c r="B24" t="n">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6479,10 +6479,10 @@
         <v>411</v>
       </c>
       <c r="B25" t="n">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1392.5</v>
+        <v>1394.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6490,10 +6490,10 @@
         <v>412</v>
       </c>
       <c r="B26" t="n">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6501,10 +6501,10 @@
         <v>413</v>
       </c>
       <c r="B27" t="n">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>829.5</v>
+        <v>832.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6512,10 +6512,10 @@
         <v>414</v>
       </c>
       <c r="B28" t="n">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6534,10 +6534,10 @@
         <v>416</v>
       </c>
       <c r="B30" t="n">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6545,10 +6545,10 @@
         <v>417</v>
       </c>
       <c r="B31" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>686.5</v>
+        <v>688.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6556,10 +6556,10 @@
         <v>418</v>
       </c>
       <c r="B32" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6567,10 +6567,10 @@
         <v>419</v>
       </c>
       <c r="B33" t="n">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6589,10 +6589,10 @@
         <v>421</v>
       </c>
       <c r="B35" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6709,19 +6709,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3712</v>
+        <v>3714</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>389</v>
@@ -6735,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3695</v>
+        <v>3697</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>86</v>
@@ -6747,13 +6747,13 @@
         <v>262</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>390</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6761,19 +6761,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>3702</v>
+        <v>3704</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>263</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>391</v>
@@ -6787,7 +6787,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3685</v>
+        <v>3687</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>88</v>
@@ -6799,13 +6799,13 @@
         <v>264</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>392</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6813,7 +6813,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4530</v>
+        <v>4532</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>89</v>
@@ -6825,13 +6825,13 @@
         <v>265</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>393</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6839,7 +6839,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4502</v>
+        <v>4504</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>90</v>
@@ -6851,13 +6851,13 @@
         <v>266</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>362</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6865,25 +6865,25 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4415</v>
+        <v>4417</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>394</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6891,25 +6891,25 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>4485</v>
+        <v>4487</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>395</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6917,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>4645</v>
+        <v>4647</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>93</v>
@@ -6929,13 +6929,13 @@
         <v>269</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>396</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6943,25 +6943,25 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>4680</v>
+        <v>4682</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>397</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6969,13 +6969,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>4687</v>
+        <v>4689</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>271</v>
@@ -6995,25 +6995,25 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>5465</v>
+        <v>5467</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>399</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7021,25 +7021,25 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>5465</v>
+        <v>5467</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>400</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7047,13 +7047,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>5440</v>
+        <v>5442</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>274</v>
@@ -7065,7 +7065,7 @@
         <v>401</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7073,25 +7073,25 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>4517</v>
+        <v>4519</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>275</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>402</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7099,25 +7099,25 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>4650</v>
+        <v>4652</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>276</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>403</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7125,19 +7125,19 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>5490</v>
+        <v>5492</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>404</v>
@@ -7151,19 +7151,19 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>4475</v>
+        <v>4477</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>405</v>
@@ -7177,25 +7177,25 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>4542</v>
+        <v>4544</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3295</v>
+        <v>3298</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>279</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>406</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>1635</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7203,25 +7203,25 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>4547</v>
+        <v>4549</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>407</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7229,25 +7229,25 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>5665</v>
+        <v>5667</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>281</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>408</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>1980</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7255,25 +7255,25 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>5700</v>
+        <v>5702</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>409</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>2050</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7281,25 +7281,25 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>5780</v>
+        <v>5782</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>283</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>410</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7307,25 +7307,25 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>5422</v>
+        <v>5424</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>284</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>411</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7333,25 +7333,25 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>5440</v>
+        <v>5442</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>285</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>412</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7359,13 +7359,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>5422</v>
+        <v>5424</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>286</v>
@@ -7377,7 +7377,7 @@
         <v>413</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7385,25 +7385,25 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>6735</v>
+        <v>6737</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>3212</v>
+        <v>3214</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>414</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7411,19 +7411,19 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>6760</v>
+        <v>6762</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>3850</v>
+        <v>3853</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3780</v>
+        <v>3782</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>415</v>
@@ -7437,25 +7437,25 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>6740</v>
+        <v>6742</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>3712</v>
+        <v>3714</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>289</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7463,25 +7463,25 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3725</v>
+        <v>3727</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>3692</v>
+        <v>3694</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>417</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7489,25 +7489,25 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>4615</v>
+        <v>4617</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>291</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3815</v>
+        <v>3817</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>418</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7515,25 +7515,25 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>5380</v>
+        <v>5382</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>419</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7541,19 +7541,19 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>7052</v>
+        <v>7054</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>293</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>420</v>
@@ -7567,25 +7567,25 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>7052</v>
+        <v>7054</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>421</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7593,19 +7593,19 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>8135</v>
+        <v>8137</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>295</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>422</v>
@@ -7619,19 +7619,19 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>8180</v>
+        <v>8182</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>423</v>
@@ -7645,19 +7645,19 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>3925</v>
+        <v>3927</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>297</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>424</v>
@@ -7671,19 +7671,19 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>7085</v>
+        <v>7087</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>425</v>
@@ -7697,19 +7697,19 @@
         <v>41</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>4555</v>
+        <v>4557</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>426</v>
@@ -7723,19 +7723,19 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>5727</v>
+        <v>5729</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>300</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7743,19 +7743,19 @@
         <v>43</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>5597</v>
+        <v>5599</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>301</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7763,19 +7763,19 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>6747</v>
+        <v>6749</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>302</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7789,13 +7789,13 @@
         <v>127</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7809,7 +7809,7 @@
         <v>128</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>304</v>
@@ -7829,13 +7829,13 @@
         <v>129</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>305</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>1778</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7849,7 +7849,7 @@
         <v>130</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>306</v>
@@ -7869,13 +7869,13 @@
         <v>131</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>307</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>1440</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7889,13 +7889,13 @@
         <v>132</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2721</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7909,13 +7909,13 @@
         <v>133</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>309</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2695</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7929,13 +7929,13 @@
         <v>134</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>310</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>2684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7949,13 +7949,13 @@
         <v>135</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>311</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>2860</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7969,13 +7969,13 @@
         <v>136</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>312</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>2830</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7989,13 +7989,13 @@
         <v>137</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>1840</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -8009,13 +8009,13 @@
         <v>138</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>314</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2060</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -8029,13 +8029,13 @@
         <v>139</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>315</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -8049,13 +8049,13 @@
         <v>140</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>316</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>2826</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -8075,7 +8075,7 @@
         <v>317</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -8089,7 +8089,7 @@
         <v>142</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>318</v>
@@ -8109,13 +8109,13 @@
         <v>143</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>319</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -8129,13 +8129,13 @@
         <v>144</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -8149,13 +8149,13 @@
         <v>145</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -8169,13 +8169,13 @@
         <v>146</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>322</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -8189,13 +8189,13 @@
         <v>147</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>323</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -8209,13 +8209,13 @@
         <v>148</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>324</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -8229,7 +8229,7 @@
         <v>149</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>325</v>
@@ -8249,13 +8249,13 @@
         <v>150</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>326</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -8269,13 +8269,13 @@
         <v>151</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>327</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>1156</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -8289,13 +8289,13 @@
         <v>152</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>328</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>1241</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -8309,13 +8309,13 @@
         <v>153</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>2861</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -8329,13 +8329,13 @@
         <v>154</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>330</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>1532</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -8349,13 +8349,13 @@
         <v>155</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>1537</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -8369,13 +8369,13 @@
         <v>156</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>332</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -8389,13 +8389,13 @@
         <v>157</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8409,13 +8409,13 @@
         <v>158</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>334</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>1640</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8429,13 +8429,13 @@
         <v>159</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>335</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8449,13 +8449,13 @@
         <v>160</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>336</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>3225</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8469,13 +8469,13 @@
         <v>161</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>337</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8489,13 +8489,13 @@
         <v>162</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8509,13 +8509,13 @@
         <v>163</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>339</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8529,7 +8529,7 @@
         <v>164</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>340</v>
@@ -8549,7 +8549,7 @@
         <v>165</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>341</v>
@@ -8563,13 +8563,13 @@
         <v>166</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>342</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8577,7 +8577,7 @@
         <v>167</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>343</v>
@@ -8591,7 +8591,7 @@
         <v>168</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>344</v>
@@ -8605,7 +8605,7 @@
         <v>169</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>345</v>
@@ -8619,7 +8619,7 @@
         <v>170</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>346</v>
@@ -8633,7 +8633,7 @@
         <v>171</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>347</v>
@@ -8647,7 +8647,7 @@
         <v>172</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>348</v>
@@ -8661,7 +8661,7 @@
         <v>173</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>349</v>
@@ -8675,7 +8675,7 @@
         <v>174</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>350</v>
@@ -8689,13 +8689,13 @@
         <v>175</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>351</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8703,7 +8703,7 @@
         <v>176</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>352</v>
@@ -8717,7 +8717,7 @@
         <v>177</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>353</v>
@@ -8731,7 +8731,7 @@
         <v>178</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>150</v>
@@ -8745,7 +8745,7 @@
         <v>179</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>151</v>
@@ -8759,7 +8759,7 @@
         <v>180</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>3892</v>
+        <v>3895</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>139</v>
@@ -8773,7 +8773,7 @@
         <v>181</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>3780</v>
+        <v>3782</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>132</v>
@@ -8787,7 +8787,7 @@
         <v>182</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>3745</v>
+        <v>3748</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>28</v>
@@ -8801,7 +8801,7 @@
         <v>183</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>4260</v>
+        <v>4263</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>26</v>
@@ -8815,7 +8815,7 @@
         <v>184</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>4317</v>
+        <v>4320</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>140</v>
@@ -8829,7 +8829,7 @@
         <v>185</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>4900</v>
+        <v>4903</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>138</v>
@@ -8843,7 +8843,7 @@
         <v>186</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>4827</v>
+        <v>4830</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>171</v>
@@ -8857,7 +8857,7 @@
         <v>187</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>4877</v>
+        <v>4879</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>101</v>
@@ -8871,7 +8871,7 @@
         <v>188</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>3750</v>
+        <v>3752</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>193</v>
@@ -8885,7 +8885,7 @@
         <v>189</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>4235</v>
+        <v>4237</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>110</v>
@@ -8899,7 +8899,7 @@
         <v>190</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>4353</v>
+        <v>4356</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>109</v>
@@ -8913,7 +8913,7 @@
         <v>191</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>4893</v>
+        <v>4896</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>128</v>
@@ -8927,7 +8927,7 @@
         <v>192</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>5725</v>
+        <v>5727</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>215</v>
@@ -8941,7 +8941,7 @@
         <v>193</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>218</v>
@@ -8955,7 +8955,7 @@
         <v>194</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>216</v>
@@ -8969,7 +8969,7 @@
         <v>195</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>354</v>
@@ -8983,7 +8983,7 @@
         <v>196</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>195</v>
@@ -8997,13 +8997,13 @@
         <v>197</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>355</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>3235</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -9011,7 +9011,7 @@
         <v>198</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>356</v>
@@ -9025,13 +9025,13 @@
         <v>199</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>357</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9039,13 +9039,13 @@
         <v>200</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>358</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -9053,7 +9053,7 @@
         <v>201</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>359</v>
@@ -9067,7 +9067,7 @@
         <v>202</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>210</v>
@@ -9081,7 +9081,7 @@
         <v>203</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>2543</v>
+        <v>2547</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>207</v>
@@ -9095,7 +9095,7 @@
         <v>204</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>360</v>
@@ -9109,7 +9109,7 @@
         <v>205</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>361</v>
@@ -9123,7 +9123,7 @@
         <v>206</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>208</v>
@@ -9137,7 +9137,7 @@
         <v>207</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>362</v>
@@ -9151,7 +9151,7 @@
         <v>208</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>363</v>
@@ -9165,7 +9165,7 @@
         <v>209</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>364</v>
@@ -9179,7 +9179,7 @@
         <v>210</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>365</v>
@@ -9193,7 +9193,7 @@
         <v>211</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>366</v>
@@ -9207,7 +9207,7 @@
         <v>212</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>367</v>
@@ -9235,7 +9235,7 @@
         <v>214</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>369</v>
@@ -9249,7 +9249,7 @@
         <v>215</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>370</v>
@@ -9263,7 +9263,7 @@
         <v>216</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>371</v>
@@ -9277,7 +9277,7 @@
         <v>217</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>372</v>
@@ -9291,7 +9291,7 @@
         <v>218</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>373</v>
@@ -9305,7 +9305,7 @@
         <v>219</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>374</v>
@@ -9319,7 +9319,7 @@
         <v>220</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>375</v>
@@ -9333,7 +9333,7 @@
         <v>221</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>376</v>
@@ -9347,7 +9347,7 @@
         <v>222</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>377</v>
@@ -9361,7 +9361,7 @@
         <v>223</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>378</v>
@@ -9375,7 +9375,7 @@
         <v>224</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>379</v>
@@ -9389,7 +9389,7 @@
         <v>225</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>380</v>
@@ -9403,7 +9403,7 @@
         <v>226</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>381</v>
@@ -9417,7 +9417,7 @@
         <v>227</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>382</v>
@@ -9431,7 +9431,7 @@
         <v>228</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>2098</v>
+        <v>2151</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>383</v>
@@ -9445,7 +9445,7 @@
         <v>229</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>384</v>
@@ -9459,7 +9459,7 @@
         <v>230</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>385</v>
@@ -9473,7 +9473,7 @@
         <v>231</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>386</v>
@@ -9487,7 +9487,7 @@
         <v>232</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>387</v>
@@ -9501,7 +9501,7 @@
         <v>233</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9509,7 +9509,7 @@
         <v>234</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9517,7 +9517,7 @@
         <v>235</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>1623</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9525,7 +9525,7 @@
         <v>236</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>1662</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9533,7 +9533,7 @@
         <v>237</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9541,7 +9541,7 @@
         <v>238</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>2885</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9549,7 +9549,7 @@
         <v>239</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>3012</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9557,7 +9557,7 @@
         <v>240</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>3000</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9565,7 +9565,7 @@
         <v>241</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>2902</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9573,7 +9573,7 @@
         <v>242</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9581,7 +9581,7 @@
         <v>243</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>2910</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9589,7 +9589,7 @@
         <v>244</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>3107</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9597,7 +9597,7 @@
         <v>245</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>3185</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9605,7 +9605,7 @@
         <v>246</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>1760</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9613,7 +9613,7 @@
         <v>247</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9621,7 +9621,7 @@
         <v>248</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>1177</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9637,7 +9637,7 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>2397</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9669,7 +9669,7 @@
         <v>254</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="172" spans="1:8">
